--- a/ethiopia-population-data-_-admin-level-0-3.xlsx
+++ b/ethiopia-population-data-_-admin-level-0-3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnmeye\Documents\GitHub\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82B125-C89C-4842-AAFA-09B3934680BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CEA6FE-2DCC-433E-AD13-7B6C1C7F93D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46972F3-0366-4C6B-B22A-C67C21EA161D}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8544" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8544" uniqueCount="2196">
   <si>
     <t>Total Population</t>
   </si>
@@ -6631,6 +6631,9 @@
   </si>
   <si>
     <t>ET120200</t>
+  </si>
+  <si>
+    <t>Goba_town</t>
   </si>
 </sst>
 </file>
@@ -9873,10 +9876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B04349-FD23-4797-87CD-358FDC2C3DCB}">
-  <dimension ref="A1:N985"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G991" sqref="G991"/>
+      <selection activeCell="A475" sqref="A475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9941,7 +9945,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2186</v>
       </c>
@@ -9985,7 +9989,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1581</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>5075.9297319404159</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1573</v>
       </c>
@@ -10079,7 +10083,7 @@
         <v>6185.4210687738223</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1575</v>
       </c>
@@ -10126,7 +10130,7 @@
         <v>7087.2638643332084</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1583</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>3754.5570391722135</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1571</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>7877.193278455934</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1585</v>
       </c>
@@ -10267,7 +10271,7 @@
         <v>8102.6350195609875</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1577</v>
       </c>
@@ -10314,7 +10318,7 @@
         <v>1389.8271082019746</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1579</v>
       </c>
@@ -10361,7 +10365,7 @@
         <v>3850.3814029651544</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1526</v>
       </c>
@@ -10408,7 +10412,7 @@
         <v>6608.3079166315338</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1515</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>10088.101363918644</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1534</v>
       </c>
@@ -10502,7 +10506,7 @@
         <v>8397.9993752894989</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1511</v>
       </c>
@@ -10549,7 +10553,7 @@
         <v>5426.8077277507664</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1524</v>
       </c>
@@ -10596,7 +10600,7 @@
         <v>3952.5159182864345</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1530</v>
       </c>
@@ -10643,7 +10647,7 @@
         <v>5137.6154543031125</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1528</v>
       </c>
@@ -10690,7 +10694,7 @@
         <v>6101.4911426688577</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1522</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>7891.4515094779672</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1532</v>
       </c>
@@ -10784,7 +10788,7 @@
         <v>5293.1551463874202</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1509</v>
       </c>
@@ -10831,7 +10835,7 @@
         <v>1317.2061144341988</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1513</v>
       </c>
@@ -10878,7 +10882,7 @@
         <v>3295.1363347989127</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1517</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>3636.2069540722914</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1545</v>
       </c>
@@ -10972,7 +10976,7 @@
         <v>4857.1773177232271</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1541</v>
       </c>
@@ -11019,7 +11023,7 @@
         <v>1509.4895774985866</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1551</v>
       </c>
@@ -11066,7 +11070,7 @@
         <v>8086.4881006641835</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1543</v>
       </c>
@@ -11113,7 +11117,7 @@
         <v>4924.2558579262095</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1547</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>6625.9362385355425</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1549</v>
       </c>
@@ -11207,7 +11211,7 @@
         <v>6027.7593722012371</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1539</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>6415.597205100732</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1537</v>
       </c>
@@ -11301,7 +11305,7 @@
         <v>4685.2701945502222</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1553</v>
       </c>
@@ -11348,7 +11352,7 @@
         <v>2460.5943245392614</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1594</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>6300.6043502260864</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1600</v>
       </c>
@@ -11442,7 +11446,7 @@
         <v>4691.7762948634208</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1608</v>
       </c>
@@ -11489,7 +11493,7 @@
         <v>7829.2624972707972</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1596</v>
       </c>
@@ -11536,7 +11540,7 @@
         <v>4771.319641720751</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1606</v>
       </c>
@@ -11583,7 +11587,7 @@
         <v>6595.3541281469788</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1604</v>
       </c>
@@ -11630,7 +11634,7 @@
         <v>1908.2840150459042</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1602</v>
       </c>
@@ -11677,7 +11681,7 @@
         <v>1682.2345057987486</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1598</v>
       </c>
@@ -11724,7 +11728,7 @@
         <v>2709.8303287052618</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1611</v>
       </c>
@@ -11771,7 +11775,7 @@
         <v>5841.630242660357</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1617</v>
       </c>
@@ -11818,7 +11822,7 @@
         <v>7851.7453164431745</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1615</v>
       </c>
@@ -11865,7 +11869,7 @@
         <v>5901.0653291143999</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1613</v>
       </c>
@@ -11912,7 +11916,7 @@
         <v>1772.4008222773855</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1591</v>
       </c>
@@ -11959,7 +11963,7 @@
         <v>7015.4257232122272</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1587</v>
       </c>
@@ -12006,7 +12010,7 @@
         <v>3546.6713524416041</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1589</v>
       </c>
@@ -12053,7 +12057,7 @@
         <v>8677.7545859212023</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1520</v>
       </c>
@@ -12100,7 +12104,7 @@
         <v>6377.8187491918497</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1560</v>
       </c>
@@ -12147,7 +12151,7 @@
         <v>3170.1079200374897</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1568</v>
       </c>
@@ -12194,7 +12198,7 @@
         <v>3050.125216387351</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1566</v>
       </c>
@@ -12241,7 +12245,7 @@
         <v>1616.0322970946961</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1564</v>
       </c>
@@ -12288,7 +12292,7 @@
         <v>3472.0791121075422</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1562</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>3688.0184764025898</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1558</v>
       </c>
@@ -12382,7 +12386,7 @@
         <v>2706.5384063277161</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1556</v>
       </c>
@@ -12429,7 +12433,7 @@
         <v>2585.9661209397277</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
@@ -12476,7 +12480,7 @@
         <v>4470.8300558390101</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -12523,7 +12527,7 @@
         <v>4530.6063512903211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -12570,7 +12574,7 @@
         <v>3188.3365461972048</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
@@ -12617,7 +12621,7 @@
         <v>1312.4930971427243</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
@@ -12664,7 +12668,7 @@
         <v>5258.1743560302857</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
@@ -12711,7 +12715,7 @@
         <v>5127.2103321406885</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>1427.3259595682443</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -12805,7 +12809,7 @@
         <v>1634.2420162833362</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
@@ -12852,7 +12856,7 @@
         <v>2877.2858454818829</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>42</v>
       </c>
@@ -12899,7 +12903,7 @@
         <v>1360.7484992443667</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>57</v>
       </c>
@@ -12946,7 +12950,7 @@
         <v>3035.1737190751287</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>59</v>
       </c>
@@ -12993,7 +12997,7 @@
         <v>2982.4849933305732</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
@@ -13040,7 +13044,7 @@
         <v>2331.3646744213293</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
@@ -13087,7 +13091,7 @@
         <v>1520.1722623236763</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
@@ -13134,7 +13138,7 @@
         <v>4383.8178793133138</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
@@ -13181,7 +13185,7 @@
         <v>4525.5246975383079</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -13228,7 +13232,7 @@
         <v>1825.8292779162473</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>53</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>3343.1932579032846</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>66</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>4222.1410533611106</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
@@ -13369,7 +13373,7 @@
         <v>2091.011367133136</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>1848.5629920699896</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -13463,7 +13467,7 @@
         <v>1138.9590791024912</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
@@ -13510,7 +13514,7 @@
         <v>1693.0376417123289</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>63</v>
       </c>
@@ -13557,7 +13561,7 @@
         <v>1227.3976847515594</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>68</v>
       </c>
@@ -13604,7 +13608,7 @@
         <v>1424.6955797482497</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -13651,7 +13655,7 @@
         <v>1894.6544831189497</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -13698,7 +13702,7 @@
         <v>2552.0600053530516</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -13745,7 +13749,7 @@
         <v>3660.1725546626212</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -13792,7 +13796,7 @@
         <v>2550.7227280498901</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -13839,7 +13843,7 @@
         <v>2769.8579021279243</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
@@ -13886,7 +13890,7 @@
         <v>2077.9952013823654</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -13933,7 +13937,7 @@
         <v>1736.2316986044393</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>2324.0096492539424</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -14027,7 +14031,7 @@
         <v>2074.6520081244626</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -14074,7 +14078,7 @@
         <v>1943.1084974034945</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>205</v>
       </c>
@@ -14121,7 +14125,7 @@
         <v>5448.9142640452828</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>207</v>
       </c>
@@ -14168,7 +14172,7 @@
         <v>5456.9659783264578</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>222</v>
       </c>
@@ -14215,7 +14219,7 @@
         <v>10169.175804707887</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>213</v>
       </c>
@@ -14262,7 +14266,7 @@
         <v>6459.8479412279266</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>211</v>
       </c>
@@ -14309,7 +14313,7 @@
         <v>8735.5788798352223</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>209</v>
       </c>
@@ -14356,7 +14360,7 @@
         <v>565.5621229198274</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
@@ -14403,7 +14407,7 @@
         <v>4601.04667275057</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>215</v>
       </c>
@@ -14450,7 +14454,7 @@
         <v>1726.7830319934358</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>334</v>
       </c>
@@ -14497,7 +14501,7 @@
         <v>9418.919350656015</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>344</v>
       </c>
@@ -14544,7 +14548,7 @@
         <v>12724.699692960919</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>338</v>
       </c>
@@ -14591,7 +14595,7 @@
         <v>11184.831645426633</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>336</v>
       </c>
@@ -14638,7 +14642,7 @@
         <v>8515.5470369027389</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>342</v>
       </c>
@@ -14685,7 +14689,7 @@
         <v>12002.58089940344</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>354</v>
       </c>
@@ -14732,7 +14736,7 @@
         <v>5834.5866137855674</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>352</v>
       </c>
@@ -14779,7 +14783,7 @@
         <v>8551.2410430052514</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>332</v>
       </c>
@@ -14826,7 +14830,7 @@
         <v>10836.463983746466</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>330</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>14140.90658205241</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>328</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>4620.1117691617765</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>356</v>
       </c>
@@ -14967,7 +14971,7 @@
         <v>6963.0974705009612</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>340</v>
       </c>
@@ -15014,7 +15018,7 @@
         <v>3791.2664547086347</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>348</v>
       </c>
@@ -15061,7 +15065,7 @@
         <v>3692.2427748468958</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>350</v>
       </c>
@@ -15108,7 +15112,7 @@
         <v>4301.2483242199187</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>360</v>
       </c>
@@ -15155,7 +15159,7 @@
         <v>899.25839676335806</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>358</v>
       </c>
@@ -15202,7 +15206,7 @@
         <v>2092.3499176706687</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>346</v>
       </c>
@@ -15249,7 +15253,7 @@
         <v>1155.7306806670556</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>326</v>
       </c>
@@ -15296,7 +15300,7 @@
         <v>1832.6463996429616</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>282</v>
       </c>
@@ -15343,7 +15347,7 @@
         <v>4587.0385040818019</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>304</v>
       </c>
@@ -15390,7 +15394,7 @@
         <v>11564.096977700458</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>288</v>
       </c>
@@ -15437,7 +15441,7 @@
         <v>8935.687694032029</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>300</v>
       </c>
@@ -15484,7 +15488,7 @@
         <v>8985.7099333706101</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>306</v>
       </c>
@@ -15531,7 +15535,7 @@
         <v>7172.9339858120429</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>290</v>
       </c>
@@ -15578,7 +15582,7 @@
         <v>9628.5170927547588</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>292</v>
       </c>
@@ -15625,7 +15629,7 @@
         <v>9418.5046912238795</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>308</v>
       </c>
@@ -15672,7 +15676,7 @@
         <v>3834.5217290298992</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>298</v>
       </c>
@@ -15719,7 +15723,7 @@
         <v>5526.0963772731102</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>284</v>
       </c>
@@ -15766,7 +15770,7 @@
         <v>3875.2631728347737</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>286</v>
       </c>
@@ -15813,7 +15817,7 @@
         <v>1073.9613260654287</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>280</v>
       </c>
@@ -15860,7 +15864,7 @@
         <v>3816.039340899235</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>302</v>
       </c>
@@ -15907,7 +15911,7 @@
         <v>1794.1982728683588</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>296</v>
       </c>
@@ -15954,7 +15958,7 @@
         <v>1440.4945638539214</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>294</v>
       </c>
@@ -16001,7 +16005,7 @@
         <v>2753.2574946437662</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>367</v>
       </c>
@@ -16048,7 +16052,7 @@
         <v>1926.027227992678</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>401</v>
       </c>
@@ -16095,7 +16099,7 @@
         <v>9401.7342567447467</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>387</v>
       </c>
@@ -16142,7 +16146,7 @@
         <v>5389.9795269694669</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>365</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>6873.210112777314</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>403</v>
       </c>
@@ -16236,7 +16240,7 @@
         <v>5675.7915623112785</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>371</v>
       </c>
@@ -16283,7 +16287,7 @@
         <v>7252.4506197486135</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>381</v>
       </c>
@@ -16330,7 +16334,7 @@
         <v>10905.80738137054</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>363</v>
       </c>
@@ -16377,7 +16381,7 @@
         <v>4343.5425300953957</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>375</v>
       </c>
@@ -16424,7 +16428,7 @@
         <v>8678.8904160703059</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>389</v>
       </c>
@@ -16471,7 +16475,7 @@
         <v>9288.8673269689916</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>399</v>
       </c>
@@ -16518,7 +16522,7 @@
         <v>8133.1366463019358</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>369</v>
       </c>
@@ -16565,7 +16569,7 @@
         <v>8228.327919282925</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>383</v>
       </c>
@@ -16612,7 +16616,7 @@
         <v>7758.9689793116668</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>379</v>
       </c>
@@ -16659,7 +16663,7 @@
         <v>7151.7327263142761</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>407</v>
       </c>
@@ -16706,7 +16710,7 @@
         <v>6102.7978189241412</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>405</v>
       </c>
@@ -16753,7 +16757,7 @@
         <v>7570.3742256555824</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>385</v>
       </c>
@@ -16800,7 +16804,7 @@
         <v>6699.0647155926808</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>373</v>
       </c>
@@ -16847,7 +16851,7 @@
         <v>11678.749526804959</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>393</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>4041.6747094710054</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>391</v>
       </c>
@@ -16941,7 +16945,7 @@
         <v>3752.575287825046</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>397</v>
       </c>
@@ -16988,7 +16992,7 @@
         <v>7994.875848408632</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>411</v>
       </c>
@@ -17035,7 +17039,7 @@
         <v>5721.005034813259</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>409</v>
       </c>
@@ -17082,7 +17086,7 @@
         <v>951.15043733354344</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>395</v>
       </c>
@@ -17129,7 +17133,7 @@
         <v>724.55899874616955</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>377</v>
       </c>
@@ -17176,7 +17180,7 @@
         <v>1225.8139452091134</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>265</v>
       </c>
@@ -17223,7 +17227,7 @@
         <v>5355.5334356955664</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>263</v>
       </c>
@@ -17270,7 +17274,7 @@
         <v>6934.2793187951811</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>245</v>
       </c>
@@ -17317,7 +17321,7 @@
         <v>3290.9595501309614</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>271</v>
       </c>
@@ -17364,7 +17368,7 @@
         <v>5367.0154661202005</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>255</v>
       </c>
@@ -17411,7 +17415,7 @@
         <v>6022.5869957590276</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>247</v>
       </c>
@@ -17458,7 +17462,7 @@
         <v>3464.3334452149511</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>231</v>
       </c>
@@ -17505,7 +17509,7 @@
         <v>4704.5356609146838</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>243</v>
       </c>
@@ -17552,7 +17556,7 @@
         <v>6528.6084140138082</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>261</v>
       </c>
@@ -17599,7 +17603,7 @@
         <v>4867.8091806873772</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>277</v>
       </c>
@@ -17646,7 +17650,7 @@
         <v>4936.7013632351791</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>269</v>
       </c>
@@ -17693,7 +17697,7 @@
         <v>3903.3662682979307</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>251</v>
       </c>
@@ -17740,7 +17744,7 @@
         <v>5546.7735606934048</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>227</v>
       </c>
@@ -17787,7 +17791,7 @@
         <v>4688.9563084298079</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>233</v>
       </c>
@@ -17834,7 +17838,7 @@
         <v>2697.7054304316384</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>229</v>
       </c>
@@ -17881,7 +17885,7 @@
         <v>4333.1086518257089</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>249</v>
       </c>
@@ -17928,7 +17932,7 @@
         <v>3100.8152205678389</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>239</v>
       </c>
@@ -17975,7 +17979,7 @@
         <v>2027.030981105637</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>267</v>
       </c>
@@ -18022,7 +18026,7 @@
         <v>7434.2573753519391</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>237</v>
       </c>
@@ -18069,7 +18073,7 @@
         <v>6688.4494738282328</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>241</v>
       </c>
@@ -18116,7 +18120,7 @@
         <v>5416.7074069205846</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>257</v>
       </c>
@@ -18163,7 +18167,7 @@
         <v>2617.4265040187443</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>259</v>
       </c>
@@ -18210,7 +18214,7 @@
         <v>1970.0107372292009</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>275</v>
       </c>
@@ -18257,7 +18261,7 @@
         <v>3485.8682076711102</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>273</v>
       </c>
@@ -18304,7 +18308,7 @@
         <v>2551.4204853096539</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>253</v>
       </c>
@@ -18351,7 +18355,7 @@
         <v>917.8477847741292</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>235</v>
       </c>
@@ -18398,7 +18402,7 @@
         <v>1273.5048682591473</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>225</v>
       </c>
@@ -18445,7 +18449,7 @@
         <v>1089.3159486673082</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>170</v>
       </c>
@@ -18492,7 +18496,7 @@
         <v>4688.765735310727</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>192</v>
       </c>
@@ -18539,7 +18543,7 @@
         <v>13486.716707526921</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -18586,7 +18590,7 @@
         <v>8468.0087085964442</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -18633,7 +18637,7 @@
         <v>7710.826614418319</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>182</v>
       </c>
@@ -18680,7 +18684,7 @@
         <v>9976.5516941245696</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -18727,7 +18731,7 @@
         <v>8058.6225567412439</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>172</v>
       </c>
@@ -18774,7 +18778,7 @@
         <v>7187.036396624042</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>174</v>
       </c>
@@ -18821,7 +18825,7 @@
         <v>4926.6304718094934</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -18868,7 +18872,7 @@
         <v>6745.0496901953056</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -18915,7 +18919,7 @@
         <v>7385.2800837481091</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>166</v>
       </c>
@@ -18962,7 +18966,7 @@
         <v>7794.10706745674</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>164</v>
       </c>
@@ -19009,7 +19013,7 @@
         <v>7024.0963798097409</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>178</v>
       </c>
@@ -19056,7 +19060,7 @@
         <v>5155.7175203390807</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>202</v>
       </c>
@@ -19103,7 +19107,7 @@
         <v>6346.7380490752003</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>176</v>
       </c>
@@ -19150,7 +19154,7 @@
         <v>5187.4955879458466</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -19197,7 +19201,7 @@
         <v>5573.3108675254416</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>162</v>
       </c>
@@ -19244,7 +19248,7 @@
         <v>5070.1025465919165</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -19291,7 +19295,7 @@
         <v>4003.7704588226329</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>196</v>
       </c>
@@ -19338,7 +19342,7 @@
         <v>2543.5794203748355</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>180</v>
       </c>
@@ -19385,7 +19389,7 @@
         <v>722.17683475765637</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>168</v>
       </c>
@@ -19432,7 +19436,7 @@
         <v>1567.5115477214442</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>465</v>
       </c>
@@ -19479,7 +19483,7 @@
         <v>10876.293765634407</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>435</v>
       </c>
@@ -19526,7 +19530,7 @@
         <v>10055.161838793912</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>469</v>
       </c>
@@ -19573,7 +19577,7 @@
         <v>10769.953965187178</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>457</v>
       </c>
@@ -19620,7 +19624,7 @@
         <v>6160.4006329962613</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>463</v>
       </c>
@@ -19667,7 +19671,7 @@
         <v>7823.5982576345332</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>461</v>
       </c>
@@ -19714,7 +19718,7 @@
         <v>6450.9000808936989</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>445</v>
       </c>
@@ -19761,7 +19765,7 @@
         <v>8574.1704871352686</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>447</v>
       </c>
@@ -19808,7 +19812,7 @@
         <v>7632.9897923949075</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>455</v>
       </c>
@@ -19855,7 +19859,7 @@
         <v>10223.294973103173</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>437</v>
       </c>
@@ -19902,7 +19906,7 @@
         <v>6448.089127387253</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>467</v>
       </c>
@@ -19949,7 +19953,7 @@
         <v>5831.3468707611892</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>433</v>
       </c>
@@ -19996,7 +20000,7 @@
         <v>17261.017330927207</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>441</v>
       </c>
@@ -20043,7 +20047,7 @@
         <v>7841.6550606674637</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>451</v>
       </c>
@@ -20090,7 +20094,7 @@
         <v>2154.1908948124706</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>443</v>
       </c>
@@ -20137,7 +20141,7 @@
         <v>8665.4733823132337</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>449</v>
       </c>
@@ -20184,7 +20188,7 @@
         <v>1488.5189898623471</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>453</v>
       </c>
@@ -20231,7 +20235,7 @@
         <v>5991.2853609499643</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>459</v>
       </c>
@@ -20278,7 +20282,7 @@
         <v>1885.339867068873</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>439</v>
       </c>
@@ -20325,7 +20329,7 @@
         <v>2636.5071394458701</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>431</v>
       </c>
@@ -20372,7 +20376,7 @@
         <v>1593.4294919164674</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>428</v>
       </c>
@@ -20419,7 +20423,7 @@
         <v>2768.66501355323</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>422</v>
       </c>
@@ -20466,7 +20470,7 @@
         <v>4206.3527531313157</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>416</v>
       </c>
@@ -20513,7 +20517,7 @@
         <v>6658.8796660782373</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>418</v>
       </c>
@@ -20560,7 +20564,7 @@
         <v>3899.4118760769984</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>414</v>
       </c>
@@ -20607,7 +20611,7 @@
         <v>2376.8279411789131</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>420</v>
       </c>
@@ -20654,7 +20658,7 @@
         <v>1303.472491234643</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>426</v>
       </c>
@@ -20701,7 +20705,7 @@
         <v>1855.0863844147557</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>424</v>
       </c>
@@ -20748,7 +20752,7 @@
         <v>1979.4601191206191</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>112</v>
       </c>
@@ -20795,7 +20799,7 @@
         <v>7246.8287127357235</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>108</v>
       </c>
@@ -20842,7 +20846,7 @@
         <v>4926.12455512618</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>104</v>
       </c>
@@ -20889,7 +20893,7 @@
         <v>5765.7563358692914</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>120</v>
       </c>
@@ -20936,7 +20940,7 @@
         <v>10543.648386278426</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>116</v>
       </c>
@@ -20983,7 +20987,7 @@
         <v>7204.6167668592689</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>124</v>
       </c>
@@ -21030,7 +21034,7 @@
         <v>6774.3409351056534</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>118</v>
       </c>
@@ -21077,7 +21081,7 @@
         <v>4872.9070116227949</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>106</v>
       </c>
@@ -21124,7 +21128,7 @@
         <v>5693.8341039924535</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>122</v>
       </c>
@@ -21171,7 +21175,7 @@
         <v>1867.8547833931864</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>126</v>
       </c>
@@ -21218,7 +21222,7 @@
         <v>5200.5208268920924</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>114</v>
       </c>
@@ -21265,7 +21269,7 @@
         <v>2243.5696876614852</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>110</v>
       </c>
@@ -21312,7 +21316,7 @@
         <v>2587.1608138444922</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>317</v>
       </c>
@@ -21359,7 +21363,7 @@
         <v>7421.2031166948864</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>313</v>
       </c>
@@ -21406,7 +21410,7 @@
         <v>4990.0618365778737</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>321</v>
       </c>
@@ -21453,7 +21457,7 @@
         <v>4295.2724051424266</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>311</v>
       </c>
@@ -21500,7 +21504,7 @@
         <v>4884.3701380478251</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>319</v>
       </c>
@@ -21547,7 +21551,7 @@
         <v>2423.2716830435234</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>323</v>
       </c>
@@ -21594,7 +21598,7 @@
         <v>1878.7925614534568</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>315</v>
       </c>
@@ -21641,7 +21645,7 @@
         <v>1742.7199466070138</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>133</v>
       </c>
@@ -21688,7 +21692,7 @@
         <v>2650.81110301936</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>153</v>
       </c>
@@ -21735,7 +21739,7 @@
         <v>4216.144399989711</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>147</v>
       </c>
@@ -21782,7 +21786,7 @@
         <v>9033.6422772396909</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>155</v>
       </c>
@@ -21829,7 +21833,7 @@
         <v>13368.509465111334</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>143</v>
       </c>
@@ -21876,7 +21880,7 @@
         <v>11045.14154914022</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>137</v>
       </c>
@@ -21923,7 +21927,7 @@
         <v>8060.3357459142126</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>135</v>
       </c>
@@ -21970,7 +21974,7 @@
         <v>8394.2351595613054</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>129</v>
       </c>
@@ -22017,7 +22021,7 @@
         <v>10879.347507218425</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>157</v>
       </c>
@@ -22064,7 +22068,7 @@
         <v>8072.0103183566871</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>139</v>
       </c>
@@ -22111,7 +22115,7 @@
         <v>6719.6288958606356</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>141</v>
       </c>
@@ -22158,7 +22162,7 @@
         <v>17180.16668515707</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>149</v>
       </c>
@@ -22205,7 +22209,7 @@
         <v>7686.3811962098716</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>151</v>
       </c>
@@ -22252,7 +22256,7 @@
         <v>8416.8812512329969</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>145</v>
       </c>
@@ -22299,7 +22303,7 @@
         <v>6967.2347956648837</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>159</v>
       </c>
@@ -22346,7 +22350,7 @@
         <v>7505.6289773465533</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>131</v>
       </c>
@@ -22393,7 +22397,7 @@
         <v>1719.0171773908824</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>477</v>
       </c>
@@ -22440,7 +22444,7 @@
         <v>2287.3877304013731</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>475</v>
       </c>
@@ -22487,7 +22491,7 @@
         <v>7174.4934704114494</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>479</v>
       </c>
@@ -22534,7 +22538,7 @@
         <v>5310.034103514964</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>471</v>
       </c>
@@ -22581,7 +22585,7 @@
         <v>1255.8292114643793</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>218</v>
       </c>
@@ -22628,7 +22632,7 @@
         <v>412.05213780985679</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>473</v>
       </c>
@@ -22675,7 +22679,7 @@
         <v>2057.7754854806108</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1284</v>
       </c>
@@ -22722,7 +22726,7 @@
         <v>7145.0152413308806</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1288</v>
       </c>
@@ -22769,7 +22773,7 @@
         <v>5160.1708387689987</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1264</v>
       </c>
@@ -22816,7 +22820,7 @@
         <v>4988.6662778470754</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1280</v>
       </c>
@@ -22863,7 +22867,7 @@
         <v>5102.714666031603</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1278</v>
       </c>
@@ -22910,7 +22914,7 @@
         <v>3498.127180067956</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1260</v>
       </c>
@@ -22957,7 +22961,7 @@
         <v>2907.2238934079005</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1252</v>
       </c>
@@ -23004,7 +23008,7 @@
         <v>3373.5928474178263</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1276</v>
       </c>
@@ -23051,7 +23055,7 @@
         <v>3242.1623628382531</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1268</v>
       </c>
@@ -23098,7 +23102,7 @@
         <v>6377.8022369556193</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1258</v>
       </c>
@@ -23145,7 +23149,7 @@
         <v>3236.9969697818492</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1254</v>
       </c>
@@ -23192,7 +23196,7 @@
         <v>4030.5938141045672</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1296</v>
       </c>
@@ -23239,7 +23243,7 @@
         <v>2587.5398819492893</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1262</v>
       </c>
@@ -23286,7 +23290,7 @@
         <v>3979.0267743751215</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1272</v>
       </c>
@@ -23333,7 +23337,7 @@
         <v>4488.9293466901654</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1292</v>
       </c>
@@ -23380,7 +23384,7 @@
         <v>4001.7795732910427</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1256</v>
       </c>
@@ -23427,7 +23431,7 @@
         <v>8038.8642267785153</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1274</v>
       </c>
@@ -23474,7 +23478,7 @@
         <v>1658.2913098889564</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1294</v>
       </c>
@@ -23521,7 +23525,7 @@
         <v>5035.1386092585799</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1270</v>
       </c>
@@ -23568,7 +23572,7 @@
         <v>4695.541291917636</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1266</v>
       </c>
@@ -23615,7 +23619,7 @@
         <v>2410.2479262716433</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1282</v>
       </c>
@@ -23662,7 +23666,7 @@
         <v>2664.5416278055113</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1286</v>
       </c>
@@ -23709,7 +23713,7 @@
         <v>1089.7908207219143</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1290</v>
       </c>
@@ -23756,7 +23760,7 @@
         <v>1477.9990995548444</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>863</v>
       </c>
@@ -23803,7 +23807,7 @@
         <v>4824.5151787514842</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>855</v>
       </c>
@@ -23850,7 +23854,7 @@
         <v>2555.0638285793057</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>847</v>
       </c>
@@ -23897,7 +23901,7 @@
         <v>7025.2363174082147</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>853</v>
       </c>
@@ -23944,7 +23948,7 @@
         <v>3527.8991055112242</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>843</v>
       </c>
@@ -23991,7 +23995,7 @@
         <v>3186.8590126731465</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>875</v>
       </c>
@@ -24038,7 +24042,7 @@
         <v>4161.9642312788956</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>841</v>
       </c>
@@ -24085,7 +24089,7 @@
         <v>3675.7557047961168</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>849</v>
       </c>
@@ -24132,7 +24136,7 @@
         <v>2758.3112842198825</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>871</v>
       </c>
@@ -24179,7 +24183,7 @@
         <v>6902.1987747803141</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>845</v>
       </c>
@@ -24226,7 +24230,7 @@
         <v>4492.9967640479053</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>869</v>
       </c>
@@ -24273,7 +24277,7 @@
         <v>5354.2765160575336</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>861</v>
       </c>
@@ -24320,7 +24324,7 @@
         <v>4795.0933407986749</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>851</v>
       </c>
@@ -24367,7 +24371,7 @@
         <v>5972.4556105644288</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>857</v>
       </c>
@@ -24414,7 +24418,7 @@
         <v>5796.2547942837618</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>867</v>
       </c>
@@ -24461,7 +24465,7 @@
         <v>4324.7650994843179</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>873</v>
       </c>
@@ -24508,7 +24512,7 @@
         <v>3234.6459266933789</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>859</v>
       </c>
@@ -24555,7 +24559,7 @@
         <v>3703.3707854869695</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>865</v>
       </c>
@@ -24602,7 +24606,7 @@
         <v>5851.8588414262549</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>972</v>
       </c>
@@ -24649,7 +24653,7 @@
         <v>9683.1336016328296</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>964</v>
       </c>
@@ -24696,7 +24700,7 @@
         <v>5134.4085135904561</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>988</v>
       </c>
@@ -24743,7 +24747,7 @@
         <v>3571.6457335264404</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>984</v>
       </c>
@@ -24790,7 +24794,7 @@
         <v>4081.201835781143</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>962</v>
       </c>
@@ -24837,7 +24841,7 @@
         <v>3544.6938557225726</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>970</v>
       </c>
@@ -24884,7 +24888,7 @@
         <v>3414.4379230143995</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>986</v>
       </c>
@@ -24931,7 +24935,7 @@
         <v>1529.4561735474895</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>966</v>
       </c>
@@ -24978,7 +24982,7 @@
         <v>2458.6052812231237</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>968</v>
       </c>
@@ -25025,7 +25029,7 @@
         <v>1921.8273807748501</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>980</v>
       </c>
@@ -25072,7 +25076,7 @@
         <v>2864.5558938829813</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>974</v>
       </c>
@@ -25119,7 +25123,7 @@
         <v>2163.951025446951</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>978</v>
       </c>
@@ -25166,7 +25170,7 @@
         <v>1132.1210881655511</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>982</v>
       </c>
@@ -25213,7 +25217,7 @@
         <v>2311.1506301813811</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>976</v>
       </c>
@@ -25260,7 +25264,7 @@
         <v>2417.9312616190564</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>1009</v>
       </c>
@@ -25307,7 +25311,7 @@
         <v>7191.6233634178552</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>1007</v>
       </c>
@@ -25354,7 +25358,7 @@
         <v>10693.502892297898</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>1023</v>
       </c>
@@ -25401,7 +25405,7 @@
         <v>9193.8964387516662</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>1031</v>
       </c>
@@ -25448,7 +25452,7 @@
         <v>8001.390111668331</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>1005</v>
       </c>
@@ -25495,7 +25499,7 @@
         <v>11470.979691560153</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>1013</v>
       </c>
@@ -25542,7 +25546,7 @@
         <v>9714.5505336126153</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>1001</v>
       </c>
@@ -25589,7 +25593,7 @@
         <v>14185.072098357196</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>999</v>
       </c>
@@ -25636,7 +25640,7 @@
         <v>7517.9295910373539</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>1021</v>
       </c>
@@ -25683,7 +25687,7 @@
         <v>13900.181190290212</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>997</v>
       </c>
@@ -25730,7 +25734,7 @@
         <v>10637.810136244818</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>1019</v>
       </c>
@@ -25777,7 +25781,7 @@
         <v>10358.588557751211</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>1029</v>
       </c>
@@ -25824,7 +25828,7 @@
         <v>6192.2148811249363</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>1025</v>
       </c>
@@ -25871,7 +25875,7 @@
         <v>6908.321028105298</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>1027</v>
       </c>
@@ -25918,7 +25922,7 @@
         <v>7501.883362564613</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>995</v>
       </c>
@@ -25965,7 +25969,7 @@
         <v>6760.3994880919809</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>1003</v>
       </c>
@@ -26012,7 +26016,7 @@
         <v>4075.544540033161</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>991</v>
       </c>
@@ -26059,7 +26063,7 @@
         <v>1980.5716957820403</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>1033</v>
       </c>
@@ -26106,7 +26110,7 @@
         <v>9410.3995726999674</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>1011</v>
       </c>
@@ -26153,7 +26157,7 @@
         <v>8905.3939429891398</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>1017</v>
       </c>
@@ -26200,7 +26204,7 @@
         <v>6532.0493136722216</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>993</v>
       </c>
@@ -26247,7 +26251,7 @@
         <v>3065.9652175390602</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>1015</v>
       </c>
@@ -26294,7 +26298,7 @@
         <v>3924.7493975208195</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>1231</v>
       </c>
@@ -26341,7 +26345,7 @@
         <v>4104.303706655558</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>1227</v>
       </c>
@@ -26388,7 +26392,7 @@
         <v>7022.295010522108</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>1233</v>
       </c>
@@ -26435,7 +26439,7 @@
         <v>10244.765994352192</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>1211</v>
       </c>
@@ -26482,7 +26486,7 @@
         <v>6638.1433995973184</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>1243</v>
       </c>
@@ -26529,7 +26533,7 @@
         <v>5267.0852850620504</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>1215</v>
       </c>
@@ -26576,7 +26580,7 @@
         <v>5115.5047737225068</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>1213</v>
       </c>
@@ -26623,7 +26627,7 @@
         <v>8377.0818447319743</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>1219</v>
       </c>
@@ -26670,7 +26674,7 @@
         <v>6525.7789413151813</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>1245</v>
       </c>
@@ -26717,7 +26721,7 @@
         <v>5635.1885745727814</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>1247</v>
       </c>
@@ -26764,7 +26768,7 @@
         <v>4756.5342430668552</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>1221</v>
       </c>
@@ -26811,7 +26815,7 @@
         <v>8721.4233569093431</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1223</v>
       </c>
@@ -26858,7 +26862,7 @@
         <v>5846.8276856429529</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>1207</v>
       </c>
@@ -26905,7 +26909,7 @@
         <v>8138.0984628853294</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>1239</v>
       </c>
@@ -26952,7 +26956,7 @@
         <v>5264.0947623658649</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>1209</v>
       </c>
@@ -26999,7 +27003,7 @@
         <v>6693.1040745278442</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>1205</v>
       </c>
@@ -27046,7 +27050,7 @@
         <v>7230.7104848747058</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>1249</v>
       </c>
@@ -27093,7 +27097,7 @@
         <v>6109.1389633543386</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>1235</v>
       </c>
@@ -27140,7 +27144,7 @@
         <v>4021.3638210043805</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>1229</v>
       </c>
@@ -27187,7 +27191,7 @@
         <v>3803.1134538280789</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>1225</v>
       </c>
@@ -27234,7 +27238,7 @@
         <v>3836.0625215848795</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>1217</v>
       </c>
@@ -27281,7 +27285,7 @@
         <v>3280.5909503504095</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>1241</v>
       </c>
@@ -27328,7 +27332,7 @@
         <v>4047.6817369387172</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>1237</v>
       </c>
@@ -27375,7 +27379,7 @@
         <v>3855.2915393658009</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1082</v>
       </c>
@@ -27422,7 +27426,7 @@
         <v>9441.9569652354257</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>1068</v>
       </c>
@@ -27469,7 +27473,7 @@
         <v>12124.727726044915</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>1074</v>
       </c>
@@ -27516,7 +27520,7 @@
         <v>5543.4527273461654</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>1080</v>
       </c>
@@ -27563,7 +27567,7 @@
         <v>8211.1974589591046</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>1066</v>
       </c>
@@ -27610,7 +27614,7 @@
         <v>6603.3407971695606</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>1072</v>
       </c>
@@ -27657,7 +27661,7 @@
         <v>4434.1585364964412</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>1064</v>
       </c>
@@ -27704,7 +27708,7 @@
         <v>3082.9231726391467</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>1084</v>
       </c>
@@ -27751,7 +27755,7 @@
         <v>6548.6386452625002</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>1060</v>
       </c>
@@ -27798,7 +27802,7 @@
         <v>4959.8393144435258</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>1078</v>
       </c>
@@ -27845,7 +27849,7 @@
         <v>5062.2641585799438</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>1070</v>
       </c>
@@ -27892,7 +27896,7 @@
         <v>2138.8898433551594</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>1086</v>
       </c>
@@ -27939,7 +27943,7 @@
         <v>3653.6651113391636</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>1076</v>
       </c>
@@ -27986,7 +27990,7 @@
         <v>3534.70523459897</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>1062</v>
       </c>
@@ -28033,7 +28037,7 @@
         <v>3564.5469110311883</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>828</v>
       </c>
@@ -28080,7 +28084,7 @@
         <v>4032.7180485981539</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>822</v>
       </c>
@@ -28127,7 +28131,7 @@
         <v>9728.3592794206143</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>809</v>
       </c>
@@ -28174,7 +28178,7 @@
         <v>9617.3201095312543</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>834</v>
       </c>
@@ -28221,7 +28225,7 @@
         <v>5876.1879371856903</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>830</v>
       </c>
@@ -28268,7 +28272,7 @@
         <v>5800.1161085306385</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>807</v>
       </c>
@@ -28315,7 +28319,7 @@
         <v>9115.7883358474373</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>824</v>
       </c>
@@ -28362,7 +28366,7 @@
         <v>10019.956280528309</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>813</v>
       </c>
@@ -28409,7 +28413,7 @@
         <v>13983.932105199348</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>818</v>
       </c>
@@ -28456,7 +28460,7 @@
         <v>8016.251387884623</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>820</v>
       </c>
@@ -28503,7 +28507,7 @@
         <v>4026.4183944012348</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>832</v>
       </c>
@@ -28550,7 +28554,7 @@
         <v>5064.5341585164942</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>811</v>
       </c>
@@ -28597,7 +28601,7 @@
         <v>18552.599987171041</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>838</v>
       </c>
@@ -28644,7 +28648,7 @@
         <v>2679.0289327979472</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>836</v>
       </c>
@@ -28691,7 +28695,7 @@
         <v>1856.1289637051661</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>642</v>
       </c>
@@ -28738,7 +28742,7 @@
         <v>6130.3310261243587</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>612</v>
       </c>
@@ -28785,7 +28789,7 @@
         <v>5630.8437496324705</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>628</v>
       </c>
@@ -28832,7 +28836,7 @@
         <v>6792.8549884134509</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>636</v>
       </c>
@@ -28879,7 +28883,7 @@
         <v>7336.8787608541625</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>626</v>
       </c>
@@ -28926,7 +28930,7 @@
         <v>4479.7613785141475</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>662</v>
       </c>
@@ -28973,7 +28977,7 @@
         <v>7046.4173389922316</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>632</v>
       </c>
@@ -29020,7 +29024,7 @@
         <v>8403.2379078158301</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>656</v>
       </c>
@@ -29067,7 +29071,7 @@
         <v>9767.6525937274018</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>620</v>
       </c>
@@ -29114,7 +29118,7 @@
         <v>6004.8443055740208</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>610</v>
       </c>
@@ -29161,7 +29165,7 @@
         <v>4901.5978584441564</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>648</v>
       </c>
@@ -29208,7 +29212,7 @@
         <v>3195.1523155777577</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>646</v>
       </c>
@@ -29255,7 +29259,7 @@
         <v>11129.726647488978</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>658</v>
       </c>
@@ -29302,7 +29306,7 @@
         <v>4465.7394434795069</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>652</v>
       </c>
@@ -29349,7 +29353,7 @@
         <v>11018.426675618206</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>622</v>
       </c>
@@ -29396,7 +29400,7 @@
         <v>9421.0316314916563</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>660</v>
       </c>
@@ -29443,7 +29447,7 @@
         <v>5793.1527407116491</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>644</v>
       </c>
@@ -29490,7 +29494,7 @@
         <v>11227.91635995616</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>638</v>
       </c>
@@ -29537,7 +29541,7 @@
         <v>10801.303974512344</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>630</v>
       </c>
@@ -29584,7 +29588,7 @@
         <v>5133.2625479454819</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>654</v>
       </c>
@@ -29631,7 +29635,7 @@
         <v>5241.6999694461347</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>640</v>
       </c>
@@ -29678,7 +29682,7 @@
         <v>7239.7519927331714</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>624</v>
       </c>
@@ -29725,7 +29729,7 @@
         <v>5559.7283751732766</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>618</v>
       </c>
@@ -29772,7 +29776,7 @@
         <v>4942.0667518222554</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>634</v>
       </c>
@@ -29819,7 +29823,7 @@
         <v>3938.7885394349023</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>614</v>
       </c>
@@ -29866,7 +29870,7 @@
         <v>5233.3677980816237</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>650</v>
       </c>
@@ -29913,7 +29917,7 @@
         <v>4590.5855512947819</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>616</v>
       </c>
@@ -29960,7 +29964,7 @@
         <v>1380.2213137472131</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>1200</v>
       </c>
@@ -30007,7 +30011,7 @@
         <v>6681.205178952674</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>1184</v>
       </c>
@@ -30054,7 +30058,7 @@
         <v>8862.2046401386924</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>1202</v>
       </c>
@@ -30101,7 +30105,7 @@
         <v>9940.2188682714641</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>1198</v>
       </c>
@@ -30148,7 +30152,7 @@
         <v>10127.194459736897</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>1178</v>
       </c>
@@ -30195,7 +30199,7 @@
         <v>2619.4457143915984</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>1170</v>
       </c>
@@ -30242,7 +30246,7 @@
         <v>5494.2286290660986</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1188</v>
       </c>
@@ -30289,7 +30293,7 @@
         <v>6674.9348065956337</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1192</v>
       </c>
@@ -30336,7 +30340,7 @@
         <v>12847.0187077638</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1182</v>
       </c>
@@ -30383,7 +30387,7 @@
         <v>9260.5993761875779</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1174</v>
       </c>
@@ -30430,7 +30434,7 @@
         <v>7057.6250124178068</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1196</v>
       </c>
@@ -30477,7 +30481,7 @@
         <v>10426.780982198265</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>1186</v>
       </c>
@@ -30524,7 +30528,7 @@
         <v>11476.521754977288</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>1180</v>
       </c>
@@ -30571,7 +30575,7 @@
         <v>11192.903869342505</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>1172</v>
       </c>
@@ -30618,7 +30622,7 @@
         <v>1414.9052333721418</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1194</v>
       </c>
@@ -30665,7 +30669,7 @@
         <v>3305.4243193630227</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1190</v>
       </c>
@@ -30712,7 +30716,7 @@
         <v>4324.4277654267453</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1176</v>
       </c>
@@ -30759,7 +30763,7 @@
         <v>2874.3979360798899</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>762</v>
       </c>
@@ -30806,7 +30810,7 @@
         <v>1377.9561258631065</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>792</v>
       </c>
@@ -30853,7 +30857,7 @@
         <v>9442.489547552419</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>788</v>
       </c>
@@ -30900,7 +30904,7 @@
         <v>7730.3515390561415</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>782</v>
       </c>
@@ -30947,7 +30951,7 @@
         <v>10152.057849059658</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>760</v>
       </c>
@@ -30994,7 +30998,7 @@
         <v>4904.8136275043526</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>772</v>
       </c>
@@ -31041,7 +31045,7 @@
         <v>7505.4921603747453</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>784</v>
       </c>
@@ -31088,7 +31092,7 @@
         <v>14895.837323771044</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>796</v>
       </c>
@@ -31135,7 +31139,7 @@
         <v>3962.0853614782195</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>790</v>
       </c>
@@ -31182,7 +31186,7 @@
         <v>11388.220723408967</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>800</v>
       </c>
@@ -31229,7 +31233,7 @@
         <v>11568.639506695781</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>778</v>
       </c>
@@ -31276,7 +31280,7 @@
         <v>9670.6422299294372</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>768</v>
       </c>
@@ -31323,7 +31327,7 @@
         <v>14808.150856793858</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>798</v>
       </c>
@@ -31370,7 +31374,7 @@
         <v>11798.611474948313</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>764</v>
       </c>
@@ -31417,7 +31421,7 @@
         <v>15973.600774021619</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>804</v>
       </c>
@@ -31464,7 +31468,7 @@
         <v>5064.0909599753022</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>766</v>
       </c>
@@ -31511,7 +31515,7 @@
         <v>5881.436684566348</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>774</v>
       </c>
@@ -31558,7 +31562,7 @@
         <v>15891.588605337143</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>776</v>
       </c>
@@ -31605,7 +31609,7 @@
         <v>5444.658126338004</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>802</v>
       </c>
@@ -31652,7 +31656,7 @@
         <v>3082.0567624887262</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>786</v>
       </c>
@@ -31699,7 +31703,7 @@
         <v>2390.5651295463344</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>780</v>
       </c>
@@ -31746,7 +31750,7 @@
         <v>5354.6511278586049</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>770</v>
       </c>
@@ -31793,7 +31797,7 @@
         <v>1008.8016803836011</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>794</v>
       </c>
@@ -31840,7 +31844,7 @@
         <v>1488.504966286449</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>758</v>
       </c>
@@ -31887,7 +31891,7 @@
         <v>597.95247284864399</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>665</v>
       </c>
@@ -31934,7 +31938,7 @@
         <v>6880.3556550888352</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>685</v>
       </c>
@@ -31981,7 +31985,7 @@
         <v>6709.9642644165742</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>675</v>
       </c>
@@ -32028,7 +32032,7 @@
         <v>5248.2522898316693</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>693</v>
       </c>
@@ -32122,7 +32126,7 @@
         <v>5087.6912590829006</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>705</v>
       </c>
@@ -32169,7 +32173,7 @@
         <v>7812.3454581242331</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>681</v>
       </c>
@@ -32216,7 +32220,7 @@
         <v>2684.855589968884</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>691</v>
       </c>
@@ -32263,7 +32267,7 @@
         <v>5466.9747271677834</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>697</v>
       </c>
@@ -32310,7 +32314,7 @@
         <v>6034.0834853686474</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>695</v>
       </c>
@@ -32357,7 +32361,7 @@
         <v>6460.5298603306892</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>667</v>
       </c>
@@ -32404,7 +32408,7 @@
         <v>6038.3799519217409</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>689</v>
       </c>
@@ -32451,7 +32455,7 @@
         <v>1922.9276668485679</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>687</v>
       </c>
@@ -32498,7 +32502,7 @@
         <v>5576.298019333065</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>699</v>
       </c>
@@ -32545,7 +32549,7 @@
         <v>2223.1992706241676</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>703</v>
       </c>
@@ -32592,7 +32596,7 @@
         <v>4415.1321075270198</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>701</v>
       </c>
@@ -32639,7 +32643,7 @@
         <v>3452.8137717887726</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>683</v>
       </c>
@@ -32686,7 +32690,7 @@
         <v>2491.4686368693478</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>669</v>
       </c>
@@ -32733,7 +32737,7 @@
         <v>2056.8302521411269</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>673</v>
       </c>
@@ -32827,7 +32831,7 @@
         <v>1330.4948201191196</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>671</v>
       </c>
@@ -32874,7 +32878,7 @@
         <v>2844.6676384823795</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>732</v>
       </c>
@@ -32921,7 +32925,7 @@
         <v>2862.9538107071699</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>708</v>
       </c>
@@ -32968,7 +32972,7 @@
         <v>2356.2775619477939</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>726</v>
       </c>
@@ -33015,7 +33019,7 @@
         <v>1894.1461819328883</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>714</v>
       </c>
@@ -33062,7 +33066,7 @@
         <v>2488.9773394892413</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>728</v>
       </c>
@@ -33109,7 +33113,7 @@
         <v>3686.5970310106436</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>724</v>
       </c>
@@ -33156,7 +33160,7 @@
         <v>2695.8651294416527</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>712</v>
       </c>
@@ -33203,7 +33207,7 @@
         <v>803.74324094686403</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>710</v>
       </c>
@@ -33250,7 +33254,7 @@
         <v>1275.7571088952495</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>720</v>
       </c>
@@ -33297,7 +33301,7 @@
         <v>1504.0414183794037</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>722</v>
       </c>
@@ -33344,7 +33348,7 @@
         <v>1099.6356939841853</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>716</v>
       </c>
@@ -33391,7 +33395,7 @@
         <v>1497.3525107541168</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>718</v>
       </c>
@@ -33438,7 +33442,7 @@
         <v>1506.7655400956075</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>734</v>
       </c>
@@ -33485,7 +33489,7 @@
         <v>1361.2248786667585</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>730</v>
       </c>
@@ -33532,7 +33536,7 @@
         <v>1423.0650972793651</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1089</v>
       </c>
@@ -33579,7 +33583,7 @@
         <v>8115.0053215860571</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1109</v>
       </c>
@@ -33626,7 +33630,7 @@
         <v>6240.1560745004135</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1107</v>
       </c>
@@ -33673,7 +33677,7 @@
         <v>9269.6628703868046</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1093</v>
       </c>
@@ -33720,7 +33724,7 @@
         <v>4835.1362559424379</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1097</v>
       </c>
@@ -33767,7 +33771,7 @@
         <v>4198.9276937358582</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1099</v>
       </c>
@@ -33814,7 +33818,7 @@
         <v>5414.7678041393146</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1105</v>
       </c>
@@ -33861,7 +33865,7 @@
         <v>4177.7067477032342</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1091</v>
       </c>
@@ -33908,7 +33912,7 @@
         <v>5048.3785659935929</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>1101</v>
       </c>
@@ -33955,7 +33959,7 @@
         <v>5122.9783290651294</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1111</v>
       </c>
@@ -34002,7 +34006,7 @@
         <v>2946.8180804789113</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1095</v>
       </c>
@@ -34049,7 +34053,7 @@
         <v>3040.6587655009153</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1103</v>
       </c>
@@ -34096,7 +34100,7 @@
         <v>2905.1718914358685</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>932</v>
       </c>
@@ -34143,7 +34147,7 @@
         <v>7656.0752749349722</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>912</v>
       </c>
@@ -34190,7 +34194,7 @@
         <v>7797.1339664630259</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>902</v>
       </c>
@@ -34237,7 +34241,7 @@
         <v>7309.5754859451636</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>934</v>
       </c>
@@ -34284,7 +34288,7 @@
         <v>3409.6507449198029</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>926</v>
       </c>
@@ -34331,7 +34335,7 @@
         <v>6284.0521664865428</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>922</v>
       </c>
@@ -34378,7 +34382,7 @@
         <v>4459.2951717343067</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>906</v>
       </c>
@@ -34425,7 +34429,7 @@
         <v>4174.3959924289238</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>914</v>
       </c>
@@ -34472,7 +34476,7 @@
         <v>3317.1757934253792</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>910</v>
       </c>
@@ -34519,7 +34523,7 @@
         <v>6055.7972526013045</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>928</v>
       </c>
@@ -34566,7 +34570,7 @@
         <v>3403.6766106268751</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>916</v>
       </c>
@@ -34613,7 +34617,7 @@
         <v>3995.8071277763156</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>924</v>
       </c>
@@ -34660,7 +34664,7 @@
         <v>2743.4551135225852</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>908</v>
       </c>
@@ -34707,7 +34711,7 @@
         <v>2048.6682932686736</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>920</v>
       </c>
@@ -34754,7 +34758,7 @@
         <v>4387.7025013989851</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>904</v>
       </c>
@@ -34801,7 +34805,7 @@
         <v>1784.5217046841242</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>918</v>
       </c>
@@ -34848,7 +34852,7 @@
         <v>799.00343192106993</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>930</v>
       </c>
@@ -34895,7 +34899,7 @@
         <v>2273.9233801246246</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1153</v>
       </c>
@@ -34942,7 +34946,7 @@
         <v>13117.47085189531</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1163</v>
       </c>
@@ -34989,7 +34993,7 @@
         <v>11962.85631741709</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1161</v>
       </c>
@@ -35036,7 +35040,7 @@
         <v>6935.0720582482718</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1149</v>
       </c>
@@ -35083,7 +35087,7 @@
         <v>6862.5072908946686</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1157</v>
       </c>
@@ -35130,7 +35134,7 @@
         <v>4543.4031892875673</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1159</v>
       </c>
@@ -35177,7 +35181,7 @@
         <v>4743.1662505499116</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1165</v>
       </c>
@@ -35224,7 +35228,7 @@
         <v>3833.3521517996387</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1155</v>
       </c>
@@ -35271,7 +35275,7 @@
         <v>2164.3296629466677</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1167</v>
       </c>
@@ -35318,7 +35322,7 @@
         <v>2035.1061274395715</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1151</v>
       </c>
@@ -35365,7 +35369,7 @@
         <v>3132.3956797985206</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>743</v>
       </c>
@@ -35412,7 +35416,7 @@
         <v>6712.7888978518149</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>751</v>
       </c>
@@ -35459,7 +35463,7 @@
         <v>2635.8423561746008</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>747</v>
       </c>
@@ -35506,7 +35510,7 @@
         <v>2769.3440268591721</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>753</v>
       </c>
@@ -35553,7 +35557,7 @@
         <v>4740.9446050396655</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>741</v>
       </c>
@@ -35600,7 +35604,7 @@
         <v>4926.0440220990549</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>749</v>
       </c>
@@ -35647,7 +35651,7 @@
         <v>5662.0258059512807</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>755</v>
       </c>
@@ -35694,7 +35698,7 @@
         <v>1449.3095133328106</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>739</v>
       </c>
@@ -35741,7 +35745,7 @@
         <v>1518.3760620071523</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>737</v>
       </c>
@@ -35788,7 +35792,7 @@
         <v>5117.6086615283893</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>745</v>
       </c>
@@ -35835,7 +35839,7 @@
         <v>3708.4617308437741</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1124</v>
       </c>
@@ -35882,7 +35886,7 @@
         <v>1620.5243311784088</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1144</v>
       </c>
@@ -35929,7 +35933,7 @@
         <v>9731.6672711365336</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1138</v>
       </c>
@@ -35976,7 +35980,7 @@
         <v>10034.916302765971</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>1116</v>
       </c>
@@ -36023,7 +36027,7 @@
         <v>11839.292097017478</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1130</v>
       </c>
@@ -36070,7 +36074,7 @@
         <v>11428.932298099089</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1134</v>
       </c>
@@ -36117,7 +36121,7 @@
         <v>6897.7474798236717</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>1126</v>
       </c>
@@ -36164,7 +36168,7 @@
         <v>12558.855250963816</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>1122</v>
       </c>
@@ -36211,7 +36215,7 @@
         <v>10942.540358194818</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>1132</v>
       </c>
@@ -36258,7 +36262,7 @@
         <v>9560.5630227954716</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>1136</v>
       </c>
@@ -36305,7 +36309,7 @@
         <v>7618.8891853878422</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>1114</v>
       </c>
@@ -36352,7 +36356,7 @@
         <v>9346.3602957480362</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>1140</v>
       </c>
@@ -36399,7 +36403,7 @@
         <v>7815.0816689484109</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>1142</v>
       </c>
@@ -36446,7 +36450,7 @@
         <v>14382.577183423147</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1128</v>
       </c>
@@ -36493,7 +36497,7 @@
         <v>3657.9476156564442</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>1146</v>
       </c>
@@ -36540,7 +36544,7 @@
         <v>5729.8366360566042</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>1120</v>
       </c>
@@ -36587,7 +36591,7 @@
         <v>1217.829184145319</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>1118</v>
       </c>
@@ -36634,7 +36638,7 @@
         <v>4759.6983981711946</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>1050</v>
       </c>
@@ -36681,7 +36685,7 @@
         <v>7077.0456364364245</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1058</v>
       </c>
@@ -36728,7 +36732,7 @@
         <v>2737.2397123959786</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>1042</v>
       </c>
@@ -36775,7 +36779,7 @@
         <v>6611.1448767901575</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1046</v>
       </c>
@@ -36822,7 +36826,7 @@
         <v>3993.0916121886212</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>1056</v>
       </c>
@@ -36869,7 +36873,7 @@
         <v>7683.0334007326373</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1044</v>
       </c>
@@ -36916,7 +36920,7 @@
         <v>2290.9841816870767</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>1038</v>
       </c>
@@ -36963,7 +36967,7 @@
         <v>5210.7288017108003</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1040</v>
       </c>
@@ -37010,7 +37014,7 @@
         <v>4933.5857493009571</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>1048</v>
       </c>
@@ -37057,7 +37061,7 @@
         <v>5725.6932725071647</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1052</v>
       </c>
@@ -37104,7 +37108,7 @@
         <v>3056.8452698150254</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>1054</v>
       </c>
@@ -37151,7 +37155,7 @@
         <v>3252.9384907940994</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1035</v>
       </c>
@@ -37198,7 +37202,7 @@
         <v>2790.3045478311287</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>949</v>
       </c>
@@ -37245,7 +37249,7 @@
         <v>2285.2730349382055</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>959</v>
       </c>
@@ -37292,7 +37296,7 @@
         <v>1166.5752446481165</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>947</v>
       </c>
@@ -37339,7 +37343,7 @@
         <v>4262.5449521349865</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>937</v>
       </c>
@@ -37386,7 +37390,7 @@
         <v>3013.9570157520325</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>939</v>
       </c>
@@ -37433,7 +37437,7 @@
         <v>3295.3547493287374</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>955</v>
       </c>
@@ -37480,7 +37484,7 @@
         <v>4309.4446524081486</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>957</v>
       </c>
@@ -37527,7 +37531,7 @@
         <v>3764.2468648498207</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>953</v>
       </c>
@@ -37574,7 +37578,7 @@
         <v>3280.8232304664443</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>943</v>
       </c>
@@ -37621,7 +37625,7 @@
         <v>3601.353276942174</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>941</v>
       </c>
@@ -37668,7 +37672,7 @@
         <v>4444.7592936569245</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>945</v>
       </c>
@@ -37715,7 +37719,7 @@
         <v>2276.2567584930302</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>951</v>
       </c>
@@ -37762,7 +37766,7 @@
         <v>2698.3507939555211</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>879</v>
       </c>
@@ -37809,7 +37813,7 @@
         <v>4922.58791135108</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>885</v>
       </c>
@@ -37856,7 +37860,7 @@
         <v>1018.51583742815</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>897</v>
       </c>
@@ -37903,7 +37907,7 @@
         <v>1189.2477083781014</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>891</v>
       </c>
@@ -37950,7 +37954,7 @@
         <v>6538.6534645167831</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>826</v>
       </c>
@@ -37997,7 +38001,7 @@
         <v>612.12658647700835</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>889</v>
       </c>
@@ -38044,7 +38048,7 @@
         <v>7583.9906793343553</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>877</v>
       </c>
@@ -38091,7 +38095,7 @@
         <v>4615.0504924807992</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>816</v>
       </c>
@@ -38138,7 +38142,7 @@
         <v>4082.7169541306125</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>895</v>
       </c>
@@ -38185,7 +38189,7 @@
         <v>8179.9607677933718</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>899</v>
       </c>
@@ -38232,7 +38236,7 @@
         <v>5561.7814637313513</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>887</v>
       </c>
@@ -38279,7 +38283,7 @@
         <v>2342.0805788417547</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>893</v>
       </c>
@@ -38326,7 +38330,7 @@
         <v>989.92886424133064</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>883</v>
       </c>
@@ -38373,7 +38377,7 @@
         <v>2093.613145101715</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>881</v>
       </c>
@@ -38420,7 +38424,7 @@
         <v>714.88228896775775</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1491</v>
       </c>
@@ -38467,7 +38471,7 @@
         <v>3628.2512612597579</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1493</v>
       </c>
@@ -38514,7 +38518,7 @@
         <v>5126.4434668619842</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>1505</v>
       </c>
@@ -38561,7 +38565,7 @@
         <v>3203.8591707116057</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>1495</v>
       </c>
@@ -38608,7 +38612,7 @@
         <v>4349.9671338151147</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1489</v>
       </c>
@@ -38655,7 +38659,7 @@
         <v>3551.9421336431942</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>1501</v>
       </c>
@@ -38702,7 +38706,7 @@
         <v>3165.2431518771791</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>1503</v>
       </c>
@@ -38749,7 +38753,7 @@
         <v>4467.6516650419589</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1499</v>
       </c>
@@ -38796,7 +38800,7 @@
         <v>2295.5903365951849</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1497</v>
       </c>
@@ -38843,7 +38847,7 @@
         <v>1455.4471137264927</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>1365</v>
       </c>
@@ -38890,7 +38894,7 @@
         <v>1712.1488873604717</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>1361</v>
       </c>
@@ -38937,7 +38941,7 @@
         <v>4830.5144167726185</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>1381</v>
       </c>
@@ -38984,7 +38988,7 @@
         <v>3809.6872837656961</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>1360</v>
       </c>
@@ -39031,7 +39035,7 @@
         <v>14893.569311821231</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1377</v>
       </c>
@@ -39078,7 +39082,7 @@
         <v>5958.6767697503174</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>1371</v>
       </c>
@@ -39125,7 +39129,7 @@
         <v>5012.4195540137134</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1383</v>
       </c>
@@ -39172,7 +39176,7 @@
         <v>3096.4996652610353</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>1363</v>
       </c>
@@ -39219,7 +39223,7 @@
         <v>2637.0749757311064</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1373</v>
       </c>
@@ -39266,7 +39270,7 @@
         <v>7404.4915108808273</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>1385</v>
       </c>
@@ -39313,7 +39317,7 @@
         <v>1337.8873023683248</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1375</v>
       </c>
@@ -39360,7 +39364,7 @@
         <v>817.64734727332325</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>1379</v>
       </c>
@@ -39407,7 +39411,7 @@
         <v>991.02763138394437</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>1369</v>
       </c>
@@ -39454,7 +39458,7 @@
         <v>2814.5184731304016</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>1367</v>
       </c>
@@ -39501,7 +39505,7 @@
         <v>4955.138156919721</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>1402</v>
       </c>
@@ -39548,7 +39552,7 @@
         <v>3649.826424761211</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>1400</v>
       </c>
@@ -39595,7 +39599,7 @@
         <v>2040.0859500880874</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>1390</v>
       </c>
@@ -39642,7 +39646,7 @@
         <v>2066.7590879360969</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>1406</v>
       </c>
@@ -39689,7 +39693,7 @@
         <v>4824.4338404921164</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>1408</v>
       </c>
@@ -39736,7 +39740,7 @@
         <v>7052.3389616739141</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>1392</v>
       </c>
@@ -39783,7 +39787,7 @@
         <v>1042.7790393361315</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>1398</v>
       </c>
@@ -39830,7 +39834,7 @@
         <v>1845.5944511986704</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>1410</v>
       </c>
@@ -39877,7 +39881,7 @@
         <v>2001.4323094096533</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>1396</v>
       </c>
@@ -39924,7 +39928,7 @@
         <v>1888.4849122932735</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>1394</v>
       </c>
@@ -39971,7 +39975,7 @@
         <v>1738.066076594645</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>1388</v>
       </c>
@@ -40018,7 +40022,7 @@
         <v>1899.680616232381</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>1404</v>
       </c>
@@ -40065,7 +40069,7 @@
         <v>1042.759171688323</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>1343</v>
       </c>
@@ -40112,7 +40116,7 @@
         <v>4425.9789531422639</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>1345</v>
       </c>
@@ -40159,7 +40163,7 @@
         <v>2771.7556308361845</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>1347</v>
       </c>
@@ -40206,7 +40210,7 @@
         <v>1087.8510309701555</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>1349</v>
       </c>
@@ -40253,7 +40257,7 @@
         <v>743.86534011678862</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>1351</v>
       </c>
@@ -40300,7 +40304,7 @@
         <v>2030.169654271579</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>1357</v>
       </c>
@@ -40347,7 +40351,7 @@
         <v>991.02763138394437</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>1355</v>
       </c>
@@ -40394,7 +40398,7 @@
         <v>991.02763138394437</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>1431</v>
       </c>
@@ -40441,7 +40445,7 @@
         <v>3038.3651542377925</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>1421</v>
       </c>
@@ -40488,7 +40492,7 @@
         <v>3478.9937056552876</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>1433</v>
       </c>
@@ -40535,7 +40539,7 @@
         <v>3594.0615452512184</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>1415</v>
       </c>
@@ -40582,7 +40586,7 @@
         <v>4376.148133570573</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>1429</v>
       </c>
@@ -40629,7 +40633,7 @@
         <v>3569.8399560355756</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>1423</v>
       </c>
@@ -40676,7 +40680,7 @@
         <v>1797.2526432949503</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>1425</v>
       </c>
@@ -40723,7 +40727,7 @@
         <v>1206.2500455026509</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>1427</v>
       </c>
@@ -40770,7 +40774,7 @@
         <v>965.00003640212071</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>1419</v>
       </c>
@@ -40817,7 +40821,7 @@
         <v>967.26778648766572</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>1417</v>
       </c>
@@ -40864,7 +40868,7 @@
         <v>965.00003640212071</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>1413</v>
       </c>
@@ -40911,7 +40915,7 @@
         <v>868.50003276190864</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>1474</v>
       </c>
@@ -40958,7 +40962,7 @@
         <v>4976.4949432457815</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>1468</v>
       </c>
@@ -41005,7 +41009,7 @@
         <v>5201.1044657377561</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>1472</v>
       </c>
@@ -41052,7 +41056,7 @@
         <v>1613.736544843764</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>1480</v>
       </c>
@@ -41099,7 +41103,7 @@
         <v>1083.7465616212417</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>1484</v>
       </c>
@@ -41146,7 +41150,7 @@
         <v>4829.7834699304867</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>1486</v>
       </c>
@@ -41193,7 +41197,7 @@
         <v>2925.0404202904192</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>1478</v>
       </c>
@@ -41240,7 +41244,7 @@
         <v>2434.0529843270619</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>1470</v>
       </c>
@@ -41287,7 +41291,7 @@
         <v>3194.4987525965535</v>
       </c>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>1482</v>
       </c>
@@ -41334,7 +41338,7 @@
         <v>2892.552398350153</v>
       </c>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>1476</v>
       </c>
@@ -41381,7 +41385,7 @@
         <v>814.55653072703012</v>
       </c>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>1466</v>
       </c>
@@ -41428,7 +41432,7 @@
         <v>1434.8103041244931</v>
       </c>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>1330</v>
       </c>
@@ -41475,7 +41479,7 @@
         <v>1453.0701116861107</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>1328</v>
       </c>
@@ -41522,7 +41526,7 @@
         <v>6440.7903100076037</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>1332</v>
       </c>
@@ -41569,7 +41573,7 @@
         <v>6124.4469588270576</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>1334</v>
       </c>
@@ -41616,7 +41620,7 @@
         <v>2076.7766099866471</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>1336</v>
       </c>
@@ -41663,7 +41667,7 @@
         <v>1512.433437365645</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>1340</v>
       </c>
@@ -41710,7 +41714,7 @@
         <v>1271.4840479634345</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>1338</v>
       </c>
@@ -41757,7 +41761,7 @@
         <v>1773.4770668998176</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>1302</v>
       </c>
@@ -41804,7 +41808,7 @@
         <v>5737.8282898235821</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>1306</v>
       </c>
@@ -41851,7 +41855,7 @@
         <v>3606.6483505862116</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>1316</v>
       </c>
@@ -41898,7 +41902,7 @@
         <v>3003.0428904445303</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>1310</v>
       </c>
@@ -41945,7 +41949,7 @@
         <v>4944.2810717028851</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>1300</v>
       </c>
@@ -41992,7 +41996,7 @@
         <v>4899.2234199338145</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>1304</v>
       </c>
@@ -42039,7 +42043,7 @@
         <v>5256.8130572065602</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>1314</v>
       </c>
@@ -42086,7 +42090,7 @@
         <v>1947.0857559954777</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>1312</v>
       </c>
@@ -42133,7 +42137,7 @@
         <v>1399.2500527830753</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>1308</v>
       </c>
@@ -42180,7 +42184,7 @@
         <v>965.00003640212071</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>1442</v>
       </c>
@@ -42227,7 +42231,7 @@
         <v>5368.3899959507589</v>
       </c>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>1440</v>
       </c>
@@ -42274,7 +42278,7 @@
         <v>6772.3791238956737</v>
       </c>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>1444</v>
       </c>
@@ -42321,7 +42325,7 @@
         <v>3203.4789566571353</v>
       </c>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>1446</v>
       </c>
@@ -42368,7 +42372,7 @@
         <v>1306.5674803257132</v>
       </c>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>1448</v>
       </c>
@@ -42415,7 +42419,7 @@
         <v>2604.7798230118528</v>
       </c>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>1438</v>
       </c>
@@ -42462,7 +42466,7 @@
         <v>2811.9007878510188</v>
       </c>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>1436</v>
       </c>
@@ -42509,7 +42513,7 @@
         <v>2434.2125918243496</v>
       </c>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>1451</v>
       </c>
@@ -42556,7 +42560,7 @@
         <v>966.25194059934563</v>
       </c>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>1455</v>
       </c>
@@ -42603,7 +42607,7 @@
         <v>1458.2389500698187</v>
       </c>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>1457</v>
       </c>
@@ -42650,7 +42654,7 @@
         <v>2339.1879261791951</v>
       </c>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>1353</v>
       </c>
@@ -42697,7 +42701,7 @@
         <v>1595.7031406728574</v>
       </c>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>1463</v>
       </c>
@@ -42744,7 +42748,7 @@
         <v>1248.8434696884774</v>
       </c>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>1453</v>
       </c>
@@ -42791,7 +42795,7 @@
         <v>1031.0312581709561</v>
       </c>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>1461</v>
       </c>
@@ -42838,7 +42842,7 @@
         <v>916.7005590301485</v>
       </c>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>1459</v>
       </c>
@@ -42885,7 +42889,7 @@
         <v>979.23440257047525</v>
       </c>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>1321</v>
       </c>
@@ -42932,7 +42936,7 @@
         <v>12713.932740721493</v>
       </c>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>1319</v>
       </c>
@@ -42979,7 +42983,7 @@
         <v>2698.1336362945913</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>1323</v>
       </c>
@@ -43026,7 +43030,7 @@
         <v>3142.6537372933194</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>1325</v>
       </c>
@@ -43073,7 +43077,7 @@
         <v>3616.0963864078471</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>514</v>
       </c>
@@ -43120,7 +43124,7 @@
         <v>3561.4035860692102</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>518</v>
       </c>
@@ -43167,7 +43171,7 @@
         <v>1082.6563336291038</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>524</v>
       </c>
@@ -43214,7 +43218,7 @@
         <v>4162.9789090505765</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>520</v>
       </c>
@@ -43261,7 +43265,7 @@
         <v>3014.5984050576749</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>516</v>
       </c>
@@ -43308,7 +43312,7 @@
         <v>4689.5689285714279</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>522</v>
       </c>
@@ -43355,7 +43359,7 @@
         <v>3452.5603766637087</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>512</v>
       </c>
@@ -43402,7 +43406,7 @@
         <v>3275.6030270629985</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>491</v>
       </c>
@@ -43449,7 +43453,7 @@
         <v>2742.2869999999998</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>489</v>
       </c>
@@ -43496,7 +43500,7 @@
         <v>1140.3805</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>483</v>
       </c>
@@ -43543,7 +43547,7 @@
         <v>5185.0395492457847</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>495</v>
       </c>
@@ -43590,7 +43594,7 @@
         <v>1681.7859999999998</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>485</v>
       </c>
@@ -43637,7 +43641,7 @@
         <v>3610.7962959183674</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>493</v>
       </c>
@@ -43684,7 +43688,7 @@
         <v>3696.9347919254656</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>487</v>
       </c>
@@ -43731,7 +43735,7 @@
         <v>1453.6991499556341</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>506</v>
       </c>
@@ -43778,7 +43782,7 @@
         <v>896.88597027506637</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>504</v>
       </c>
@@ -43825,7 +43829,7 @@
         <v>1302.0356477373555</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>502</v>
       </c>
@@ -43872,7 +43876,7 @@
         <v>1452.4543740017746</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>498</v>
       </c>
@@ -43919,7 +43923,7 @@
         <v>1579.7700585625553</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>500</v>
       </c>
@@ -43966,7 +43970,7 @@
         <v>2091.6717218278613</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>509</v>
       </c>
@@ -44013,7 +44017,7 @@
         <v>3415.0677249334512</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>1621</v>
       </c>
@@ -44060,7 +44064,7 @@
         <v>3282.512204098201</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>1623</v>
       </c>
@@ -44107,7 +44111,7 @@
         <v>3653.7768224521128</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>1625</v>
       </c>
@@ -44154,7 +44158,7 @@
         <v>5375.7578916978537</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>1627</v>
       </c>
@@ -44201,7 +44205,7 @@
         <v>5881.2269577234119</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1629</v>
       </c>
@@ -44248,7 +44252,7 @@
         <v>9132.1892914613636</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>1631</v>
       </c>
@@ -44295,7 +44299,7 @@
         <v>9091.5263904508884</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>1633</v>
       </c>
@@ -44342,7 +44346,7 @@
         <v>4144.660904228328</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>1635</v>
       </c>
@@ -44389,7 +44393,7 @@
         <v>2861.8929574835615</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>1637</v>
       </c>
@@ -44436,7 +44440,7 @@
         <v>4939.65794844008</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>1639</v>
       </c>
@@ -44483,7 +44487,7 @@
         <v>14973.313550516086</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>1641</v>
       </c>
@@ -44530,7 +44534,7 @@
         <v>10611.391941973612</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>1643</v>
       </c>
@@ -44577,7 +44581,7 @@
         <v>5510.2319901599831</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>1645</v>
       </c>
@@ -44624,7 +44628,7 @@
         <v>4307.52290955239</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>1647</v>
       </c>
@@ -44671,7 +44675,7 @@
         <v>3373.529645151551</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>1649</v>
       </c>
@@ -44718,7 +44722,7 @@
         <v>3443.6554055563101</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>1651</v>
       </c>
@@ -44765,7 +44769,7 @@
         <v>241.47233073743672</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>1653</v>
       </c>
@@ -44812,7 +44816,7 @@
         <v>322.18725411516482</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>1655</v>
       </c>
@@ -44859,7 +44863,7 @@
         <v>135.67342395187359</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>1658</v>
       </c>
@@ -44906,7 +44910,7 @@
         <v>9611.1553274917933</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>1660</v>
       </c>
@@ -44953,7 +44957,7 @@
         <v>6921.8605015229605</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>1662</v>
       </c>
@@ -45000,7 +45004,7 @@
         <v>8079.4549888632373</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>1664</v>
       </c>
@@ -45047,7 +45051,7 @@
         <v>6621.7029061460444</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>1666</v>
       </c>
@@ -45094,7 +45098,7 @@
         <v>9747.3297161271876</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>1668</v>
       </c>
@@ -45141,7 +45145,7 @@
         <v>11655.150880208044</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>1670</v>
       </c>
@@ -45188,7 +45192,7 @@
         <v>7736.4940358468784</v>
       </c>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>1672</v>
       </c>
@@ -45235,7 +45239,7 @@
         <v>4350.6270071035824</v>
       </c>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>1674</v>
       </c>
@@ -45282,7 +45286,7 @@
         <v>5260.2725129555838</v>
       </c>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>1676</v>
       </c>
@@ -45329,7 +45333,7 @@
         <v>5489.3826534637537</v>
       </c>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>1678</v>
       </c>
@@ -45376,7 +45380,7 @@
         <v>5422.0811400216617</v>
       </c>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>1680</v>
       </c>
@@ -45423,7 +45427,7 @@
         <v>1106.6110022910468</v>
       </c>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>1682</v>
       </c>
@@ -45470,7 +45474,7 @@
         <v>284.05163570954807</v>
       </c>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>1684</v>
       </c>
@@ -45517,7 +45521,7 @@
         <v>170.50805588640907</v>
       </c>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>1687</v>
       </c>
@@ -45564,7 +45568,7 @@
         <v>6728.7658629793586</v>
       </c>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>1689</v>
       </c>
@@ -45611,7 +45615,7 @@
         <v>5620.9170800966795</v>
       </c>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>1691</v>
       </c>
@@ -45658,7 +45662,7 @@
         <v>3472.3428737348486</v>
       </c>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>1693</v>
       </c>
@@ -45705,7 +45709,7 @@
         <v>6252.4611240276681</v>
       </c>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>1695</v>
       </c>
@@ -45752,7 +45756,7 @@
         <v>6513.273415680098</v>
       </c>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>1697</v>
       </c>
@@ -45799,7 +45803,7 @@
         <v>5027.3274827370406</v>
       </c>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>1699</v>
       </c>
@@ -45846,7 +45850,7 @@
         <v>5297.9628727347927</v>
       </c>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>1701</v>
       </c>
@@ -45893,7 +45897,7 @@
         <v>4180.6834568427603</v>
       </c>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>1703</v>
       </c>
@@ -45940,7 +45944,7 @@
         <v>1106.6110022910468</v>
       </c>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>1706</v>
       </c>
@@ -45987,7 +45991,7 @@
         <v>4632.899327674525</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>1708</v>
       </c>
@@ -46034,7 +46038,7 @@
         <v>4607.3852037642037</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>1710</v>
       </c>
@@ -46081,7 +46085,7 @@
         <v>6247.8433767198549</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>1712</v>
       </c>
@@ -46128,7 +46132,7 @@
         <v>14544.147037707167</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>1714</v>
       </c>
@@ -46175,7 +46179,7 @@
         <v>8559.5353557086473</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>1716</v>
       </c>
@@ -46222,7 +46226,7 @@
         <v>6431.4233877765919</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>1718</v>
       </c>
@@ -46269,7 +46273,7 @@
         <v>6563.4839652022183</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>1720</v>
       </c>
@@ -46316,7 +46320,7 @@
         <v>7148.2067397277187</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>1722</v>
       </c>
@@ -46363,7 +46367,7 @@
         <v>5195.065104671462</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>1724</v>
       </c>
@@ -46410,7 +46414,7 @@
         <v>3346.5990290378695</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>1726</v>
       </c>
@@ -46457,7 +46461,7 @@
         <v>4913.4139279486926</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>1728</v>
       </c>
@@ -46504,7 +46508,7 @@
         <v>6939.9931444247986</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>1730</v>
       </c>
@@ -46551,7 +46555,7 @@
         <v>4532.1656385517645</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>1732</v>
       </c>
@@ -46598,7 +46602,7 @@
         <v>6023.9986460239788</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>1734</v>
       </c>
@@ -46645,7 +46649,7 @@
         <v>3153.1093673362907</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>1736</v>
       </c>
@@ -46692,7 +46696,7 @@
         <v>4612.9866405828998</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>1738</v>
       </c>
@@ -46739,7 +46743,7 @@
         <v>8341.975212696123</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>1740</v>
       </c>
@@ -46786,7 +46790,7 @@
         <v>7101.4376724746289</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>1742</v>
       </c>
@@ -46833,7 +46837,7 @@
         <v>21345.332546314876</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>1744</v>
       </c>
@@ -46880,7 +46884,7 @@
         <v>6992.7767064144609</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>1746</v>
       </c>
@@ -46927,7 +46931,7 @@
         <v>51.588043524696886</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>1748</v>
       </c>
@@ -46974,7 +46978,7 @@
         <v>3595.2674829889565</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>1750</v>
       </c>
@@ -47021,7 +47025,7 @@
         <v>2704.3562186210797</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>1752</v>
       </c>
@@ -47068,7 +47072,7 @@
         <v>10444.328117840631</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>1754</v>
       </c>
@@ -47115,7 +47119,7 @@
         <v>2035.7203305936603</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>1756</v>
       </c>
@@ -47162,7 +47166,7 @@
         <v>2694.4486415093625</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>1758</v>
       </c>
@@ -47209,7 +47213,7 @@
         <v>3845.9847988773076</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>1760</v>
       </c>
@@ -47256,7 +47260,7 @@
         <v>2674.3425718254139</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>1762</v>
       </c>
@@ -47303,7 +47307,7 @@
         <v>977.82687354291443</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>1764</v>
       </c>
@@ -47350,7 +47354,7 @@
         <v>3285.8326526681972</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>1766</v>
       </c>
@@ -47397,7 +47401,7 @@
         <v>2344.9586584623971</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>1768</v>
       </c>
@@ -47444,7 +47448,7 @@
         <v>2127.7667700814791</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>1770</v>
       </c>
@@ -47491,7 +47495,7 @@
         <v>5581.9139631449652</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>1772</v>
       </c>
@@ -47538,7 +47542,7 @@
         <v>6948.2009420120339</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>1774</v>
       </c>
@@ -47585,7 +47589,7 @@
         <v>6759.6225875533319</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>1776</v>
       </c>
@@ -47632,7 +47636,7 @@
         <v>4042.6976372004979</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>1778</v>
       </c>
@@ -47679,7 +47683,7 @@
         <v>1884.6290981984546</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>1780</v>
       </c>
@@ -47726,7 +47730,7 @@
         <v>1064.7879587559787</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>1783</v>
       </c>
@@ -47773,7 +47777,7 @@
         <v>7088.4828482461335</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>1785</v>
       </c>
@@ -47820,7 +47824,7 @@
         <v>8276.8699956015826</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>1787</v>
       </c>
@@ -47867,7 +47871,7 @@
         <v>6279.3492636401916</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>1789</v>
       </c>
@@ -47914,7 +47918,7 @@
         <v>3228.5898752851303</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>1791</v>
       </c>
@@ -47961,7 +47965,7 @@
         <v>6169.02229632529</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>1793</v>
       </c>
@@ -48008,7 +48012,7 @@
         <v>5665.5071019780744</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>1795</v>
       </c>
@@ -48055,7 +48059,7 @@
         <v>4581.9858480217499</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>1797</v>
       </c>
@@ -48102,7 +48106,7 @@
         <v>521.3800693374568</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>1799</v>
       </c>
@@ -48149,7 +48153,7 @@
         <v>4139.8107516008777</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>1801</v>
       </c>
@@ -48196,7 +48200,7 @@
         <v>5439.6270494974433</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>1803</v>
       </c>
@@ -48243,7 +48247,7 @@
         <v>477.96860891966469</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>1805</v>
       </c>
@@ -48290,7 +48294,7 @@
         <v>3025.3717503891285</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>1808</v>
       </c>
@@ -48337,7 +48341,7 @@
         <v>9788.7863896180806</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>1810</v>
       </c>
@@ -48384,7 +48388,7 @@
         <v>6689.3423581032603</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>1812</v>
       </c>
@@ -48431,7 +48435,7 @@
         <v>5819.0028969234863</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>1814</v>
       </c>
@@ -48478,7 +48482,7 @@
         <v>6946.2517742195805</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>1816</v>
       </c>
@@ -48525,7 +48529,7 @@
         <v>8566.5268865178914</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>1818</v>
       </c>
@@ -48572,7 +48576,7 @@
         <v>6650.3681276161242</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>1820</v>
       </c>
@@ -48619,7 +48623,7 @@
         <v>6360.6327779189087</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>1822</v>
       </c>
@@ -48666,7 +48670,7 @@
         <v>5527.7073350548153</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>1824</v>
       </c>
@@ -48713,7 +48717,7 @@
         <v>6204.4929630972811</v>
       </c>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>1826</v>
       </c>
@@ -48760,7 +48764,7 @@
         <v>6135.4256898801386</v>
       </c>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>1828</v>
       </c>
@@ -48807,7 +48811,7 @@
         <v>6669.1251106210557</v>
       </c>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>1830</v>
       </c>
@@ -48854,7 +48858,7 @@
         <v>6096.6181441170174</v>
       </c>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>1832</v>
       </c>
@@ -48901,7 +48905,7 @@
         <v>7430.6247713527227</v>
       </c>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>1834</v>
       </c>
@@ -48948,7 +48952,7 @@
         <v>3121.410227886568</v>
       </c>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>1836</v>
       </c>
@@ -48995,7 +48999,7 @@
         <v>3210.9538637794135</v>
       </c>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>1838</v>
       </c>
@@ -49042,7 +49046,7 @@
         <v>1038.5890562624982</v>
       </c>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>1840</v>
       </c>
@@ -49089,7 +49093,7 @@
         <v>271.42331941255748</v>
       </c>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>1842</v>
       </c>
@@ -49136,7 +49140,7 @@
         <v>234.62039709953214</v>
       </c>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>1844</v>
       </c>
@@ -49183,7 +49187,7 @@
         <v>203.77551158433377</v>
       </c>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>1847</v>
       </c>
@@ -49230,7 +49234,7 @@
         <v>1764.5624807162314</v>
       </c>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>1849</v>
       </c>
@@ -49277,7 +49281,7 @@
         <v>12083.598550064416</v>
       </c>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>1851</v>
       </c>
@@ -49324,7 +49328,7 @@
         <v>4260.6264044139025</v>
       </c>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>1853</v>
       </c>
@@ -49371,7 +49375,7 @@
         <v>3780.8240484305888</v>
       </c>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>1855</v>
       </c>
@@ -49418,7 +49422,7 @@
         <v>3351.2931370525148</v>
       </c>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>1857</v>
       </c>
@@ -49465,7 +49469,7 @@
         <v>3338.061971743859</v>
       </c>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>1859</v>
       </c>
@@ -49512,7 +49516,7 @@
         <v>5321.1043555726837</v>
       </c>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>1861</v>
       </c>
@@ -49559,7 +49563,7 @@
         <v>1105.4719502146311</v>
       </c>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>1863</v>
       </c>
@@ -49606,7 +49610,7 @@
         <v>1569.9595466078924</v>
       </c>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>1866</v>
       </c>
@@ -49653,7 +49657,7 @@
         <v>2646.2019152441867</v>
       </c>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>1868</v>
       </c>
@@ -49700,7 +49704,7 @@
         <v>1541.7341202337045</v>
       </c>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>1870</v>
       </c>
@@ -49747,7 +49751,7 @@
         <v>6874.1053412155989</v>
       </c>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>1872</v>
       </c>
@@ -49794,7 +49798,7 @@
         <v>1923.3495624772934</v>
       </c>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>1874</v>
       </c>
@@ -49841,7 +49845,7 @@
         <v>313.90825347109154</v>
       </c>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>1877</v>
       </c>
@@ -49888,7 +49892,7 @@
         <v>2591.4719642072937</v>
       </c>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>1879</v>
       </c>
@@ -49935,7 +49939,7 @@
         <v>5384.1306048484403</v>
       </c>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>1881</v>
       </c>
@@ -49982,7 +49986,7 @@
         <v>4563.0779134960057</v>
       </c>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>1883</v>
       </c>
@@ -50029,7 +50033,7 @@
         <v>5215.4621385046485</v>
       </c>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>1885</v>
       </c>
@@ -50076,7 +50080,7 @@
         <v>6793.6229239607956</v>
       </c>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>1887</v>
       </c>
@@ -50123,7 +50127,7 @@
         <v>4015.823472854328</v>
       </c>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>1889</v>
       </c>
@@ -50170,7 +50174,7 @@
         <v>2065.8878697820978</v>
       </c>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>1891</v>
       </c>
@@ -50217,7 +50221,7 @@
         <v>4031.7351339636298</v>
       </c>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>1893</v>
       </c>
@@ -50264,7 +50268,7 @@
         <v>1445.559353560373</v>
       </c>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>1895</v>
       </c>
@@ -50311,7 +50315,7 @@
         <v>4714.2551275444384</v>
       </c>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>1897</v>
       </c>
@@ -50358,9 +50362,9 @@
         <v>2522.4989268789172</v>
       </c>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>681</v>
+        <v>2195</v>
       </c>
       <c r="B862" s="1" t="s">
         <v>2063</v>
@@ -50405,7 +50409,7 @@
         <v>3796.8767766453598</v>
       </c>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>1899</v>
       </c>
@@ -50452,7 +50456,7 @@
         <v>3956.5743675555154</v>
       </c>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>1902</v>
       </c>
@@ -50499,7 +50503,7 @@
         <v>236.94592346138234</v>
       </c>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>1904</v>
       </c>
@@ -50546,7 +50550,7 @@
         <v>4299.7997396165829</v>
       </c>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>1906</v>
       </c>
@@ -50593,7 +50597,7 @@
         <v>4800.9319766665758</v>
       </c>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>1908</v>
       </c>
@@ -50640,7 +50644,7 @@
         <v>5826.6069561168615</v>
       </c>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>1910</v>
       </c>
@@ -50687,7 +50691,7 @@
         <v>909.2646158354496</v>
       </c>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>1912</v>
       </c>
@@ -50734,7 +50738,7 @@
         <v>5307.309255348262</v>
       </c>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>1914</v>
       </c>
@@ -50781,7 +50785,7 @@
         <v>5125.3544723911928</v>
       </c>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>1916</v>
       </c>
@@ -50828,7 +50832,7 @@
         <v>481.78769092529211</v>
       </c>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>1918</v>
       </c>
@@ -50875,7 +50879,7 @@
         <v>5725.602889034104</v>
       </c>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>1920</v>
       </c>
@@ -50922,7 +50926,7 @@
         <v>266.12052426417375</v>
       </c>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>1922</v>
       </c>
@@ -50969,7 +50973,7 @@
         <v>8065.3539122836974</v>
       </c>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>1924</v>
       </c>
@@ -51016,7 +51020,7 @@
         <v>2015.5121126826439</v>
       </c>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>1926</v>
       </c>
@@ -51063,7 +51067,7 @@
         <v>6138.9347799174366</v>
       </c>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1" t="s">
         <v>1928</v>
       </c>
@@ -51110,7 +51114,7 @@
         <v>2293.8912286818295</v>
       </c>
     </row>
-    <row r="878" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1" t="s">
         <v>1930</v>
       </c>
@@ -51157,7 +51161,7 @@
         <v>2358.96457582841</v>
       </c>
     </row>
-    <row r="879" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1" t="s">
         <v>1932</v>
       </c>
@@ -51204,7 +51208,7 @@
         <v>3870.3784836546379</v>
       </c>
     </row>
-    <row r="880" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1" t="s">
         <v>1934</v>
       </c>
@@ -51251,7 +51255,7 @@
         <v>5514.0558476406759</v>
       </c>
     </row>
-    <row r="881" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
         <v>1936</v>
       </c>
@@ -51298,7 +51302,7 @@
         <v>7707.8842837097454</v>
       </c>
     </row>
-    <row r="882" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1" t="s">
         <v>1865</v>
       </c>
@@ -51345,7 +51349,7 @@
         <v>3204.7636206709385</v>
       </c>
     </row>
-    <row r="883" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>1940</v>
       </c>
@@ -51392,7 +51396,7 @@
         <v>2284.2235120534165</v>
       </c>
     </row>
-    <row r="884" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>1942</v>
       </c>
@@ -51439,7 +51443,7 @@
         <v>6915.0908727615915</v>
       </c>
     </row>
-    <row r="885" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>1944</v>
       </c>
@@ -51486,7 +51490,7 @@
         <v>7477.8744055228481</v>
       </c>
     </row>
-    <row r="886" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>1946</v>
       </c>
@@ -51533,7 +51537,7 @@
         <v>4704.8884460313702</v>
       </c>
     </row>
-    <row r="887" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>1948</v>
       </c>
@@ -51580,7 +51584,7 @@
         <v>2047.5518152764148</v>
       </c>
     </row>
-    <row r="888" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>1950</v>
       </c>
@@ -51627,7 +51631,7 @@
         <v>2639.9675012777911</v>
       </c>
     </row>
-    <row r="889" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>1953</v>
       </c>
@@ -51674,7 +51678,7 @@
         <v>3937.7033292008341</v>
       </c>
     </row>
-    <row r="890" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>1956</v>
       </c>
@@ -51721,7 +51725,7 @@
         <v>267.70310462511827</v>
       </c>
     </row>
-    <row r="891" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>1958</v>
       </c>
@@ -51768,7 +51772,7 @@
         <v>1234.0234595778295</v>
       </c>
     </row>
-    <row r="892" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>1960</v>
       </c>
@@ -51815,7 +51819,7 @@
         <v>12289.736186570837</v>
       </c>
     </row>
-    <row r="893" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>1963</v>
       </c>
@@ -51862,7 +51866,7 @@
         <v>3251.8434485111979</v>
       </c>
     </row>
-    <row r="894" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>1965</v>
       </c>
@@ -51909,7 +51913,7 @@
         <v>12421.806945099181</v>
       </c>
     </row>
-    <row r="895" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>1967</v>
       </c>
@@ -51956,7 +51960,7 @@
         <v>3555.6525143695089</v>
       </c>
     </row>
-    <row r="896" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>1969</v>
       </c>
@@ -52003,7 +52007,7 @@
         <v>12689.990938342547</v>
       </c>
     </row>
-    <row r="897" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>1972</v>
       </c>
@@ -52050,7 +52054,7 @@
         <v>7593.6437882407645</v>
       </c>
     </row>
-    <row r="898" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>1974</v>
       </c>
@@ -52097,7 +52101,7 @@
         <v>4533.8870400800852</v>
       </c>
     </row>
-    <row r="899" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>1976</v>
       </c>
@@ -52144,7 +52148,7 @@
         <v>4692.2097115886954</v>
       </c>
     </row>
-    <row r="900" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>1978</v>
       </c>
@@ -52191,7 +52195,7 @@
         <v>4413.3846487962664</v>
       </c>
     </row>
-    <row r="901" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>1980</v>
       </c>
@@ -52238,7 +52242,7 @@
         <v>4311.8431448047677</v>
       </c>
     </row>
-    <row r="902" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>1982</v>
       </c>
@@ -52285,7 +52289,7 @@
         <v>2100.4837251070576</v>
       </c>
     </row>
-    <row r="903" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>1984</v>
       </c>
@@ -52332,7 +52336,7 @@
         <v>2333.0499889656076</v>
       </c>
     </row>
-    <row r="904" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>1986</v>
       </c>
@@ -52379,7 +52383,7 @@
         <v>265.57554021379218</v>
       </c>
     </row>
-    <row r="905" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>1989</v>
       </c>
@@ -52426,7 +52430,7 @@
         <v>3662.3354791320789</v>
       </c>
     </row>
-    <row r="906" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>1992</v>
       </c>
@@ -52473,7 +52477,7 @@
         <v>4276.3184144753777</v>
       </c>
     </row>
-    <row r="907" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>1994</v>
       </c>
@@ -52520,7 +52524,7 @@
         <v>2893.9570109221745</v>
       </c>
     </row>
-    <row r="908" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>1996</v>
       </c>
@@ -52567,7 +52571,7 @@
         <v>2839.6421723938911</v>
       </c>
     </row>
-    <row r="909" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>1998</v>
       </c>
@@ -52614,7 +52618,7 @@
         <v>2782.7559801160282</v>
       </c>
     </row>
-    <row r="910" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>2000</v>
       </c>
@@ -52661,7 +52665,7 @@
         <v>4129.942929449996</v>
       </c>
     </row>
-    <row r="911" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>2002</v>
       </c>
@@ -52708,7 +52712,7 @@
         <v>1972.2700513193568</v>
       </c>
     </row>
-    <row r="912" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>2004</v>
       </c>
@@ -52755,7 +52759,7 @@
         <v>1181.9842237289758</v>
       </c>
     </row>
-    <row r="913" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>2006</v>
       </c>
@@ -52802,7 +52806,7 @@
         <v>3163.9118648188964</v>
       </c>
     </row>
-    <row r="914" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>2008</v>
       </c>
@@ -52849,7 +52853,7 @@
         <v>4062.4209003809096</v>
       </c>
     </row>
-    <row r="915" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
         <v>2010</v>
       </c>
@@ -52896,7 +52900,7 @@
         <v>2399.9654170855979</v>
       </c>
     </row>
-    <row r="916" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>2012</v>
       </c>
@@ -52943,7 +52947,7 @@
         <v>1527.4988037334363</v>
       </c>
     </row>
-    <row r="917" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
         <v>2015</v>
       </c>
@@ -52990,7 +52994,7 @@
         <v>4334.8682614287745</v>
       </c>
     </row>
-    <row r="918" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>2017</v>
       </c>
@@ -53037,7 +53041,7 @@
         <v>1271.7244653541948</v>
       </c>
     </row>
-    <row r="919" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>2019</v>
       </c>
@@ -53084,7 +53088,7 @@
         <v>1357.3941206547456</v>
       </c>
     </row>
-    <row r="920" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
         <v>2021</v>
       </c>
@@ -53131,7 +53135,7 @@
         <v>1397.5806126854909</v>
       </c>
     </row>
-    <row r="921" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
         <v>2023</v>
       </c>
@@ -53178,7 +53182,7 @@
         <v>795.55463891288355</v>
       </c>
     </row>
-    <row r="922" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>2025</v>
       </c>
@@ -53225,7 +53229,7 @@
         <v>1555.0421759724131</v>
       </c>
     </row>
-    <row r="923" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
         <v>2027</v>
       </c>
@@ -53272,7 +53276,7 @@
         <v>2019.8175793279217</v>
       </c>
     </row>
-    <row r="924" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
         <v>2030</v>
       </c>
@@ -53319,7 +53323,7 @@
         <v>5815.3458082375064</v>
       </c>
     </row>
-    <row r="925" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
         <v>2033</v>
       </c>
@@ -53366,7 +53370,7 @@
         <v>5935.5757087129477</v>
       </c>
     </row>
-    <row r="926" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
         <v>2035</v>
       </c>
@@ -53413,7 +53417,7 @@
         <v>10372.227434852006</v>
       </c>
     </row>
-    <row r="927" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
         <v>2037</v>
       </c>
@@ -53460,7 +53464,7 @@
         <v>8474.1147123809951</v>
       </c>
     </row>
-    <row r="928" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
         <v>2039</v>
       </c>
@@ -53507,7 +53511,7 @@
         <v>4066.0594510567103</v>
       </c>
     </row>
-    <row r="929" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
         <v>2041</v>
       </c>
@@ -53554,7 +53558,7 @@
         <v>5415.831626791819</v>
       </c>
     </row>
-    <row r="930" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
         <v>2043</v>
       </c>
@@ -53601,7 +53605,7 @@
         <v>5364.3679696418831</v>
       </c>
     </row>
-    <row r="931" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>2045</v>
       </c>
@@ -53648,7 +53652,7 @@
         <v>3374.1335187928621</v>
       </c>
     </row>
-    <row r="932" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
         <v>2047</v>
       </c>
@@ -53695,7 +53699,7 @@
         <v>4009.7875364352603</v>
       </c>
     </row>
-    <row r="933" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>2049</v>
       </c>
@@ -53742,7 +53746,7 @@
         <v>423.98658605709386</v>
       </c>
     </row>
-    <row r="934" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
         <v>2051</v>
       </c>
@@ -53789,7 +53793,7 @@
         <v>3558.9602536911443</v>
       </c>
     </row>
-    <row r="935" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>2053</v>
       </c>
@@ -53836,7 +53840,7 @@
         <v>9469.7244975936064</v>
       </c>
     </row>
-    <row r="936" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
         <v>2056</v>
       </c>
@@ -53883,7 +53887,7 @@
         <v>3478.8280389159559</v>
       </c>
     </row>
-    <row r="937" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>2059</v>
       </c>
@@ -53930,7 +53934,7 @@
         <v>5204.1016514885168</v>
       </c>
     </row>
-    <row r="938" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
         <v>2062</v>
       </c>
@@ -53977,7 +53981,7 @@
         <v>4972.5169953702052</v>
       </c>
     </row>
-    <row r="939" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>580</v>
       </c>
@@ -54024,7 +54028,7 @@
         <v>1573.1905394567066</v>
       </c>
     </row>
-    <row r="940" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
         <v>584</v>
       </c>
@@ -54071,7 +54075,7 @@
         <v>2187.0819103114582</v>
       </c>
     </row>
-    <row r="941" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>582</v>
       </c>
@@ -54118,7 +54122,7 @@
         <v>1791.2998510263917</v>
       </c>
     </row>
-    <row r="942" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
         <v>588</v>
       </c>
@@ -54165,7 +54169,7 @@
         <v>1411.3792309861813</v>
       </c>
     </row>
-    <row r="943" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>586</v>
       </c>
@@ -54212,7 +54216,7 @@
         <v>1131.7474999999999</v>
       </c>
     </row>
-    <row r="944" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
         <v>568</v>
       </c>
@@ -54257,7 +54261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>557</v>
       </c>
@@ -54304,7 +54308,7 @@
         <v>1122.8132268366398</v>
       </c>
     </row>
-    <row r="946" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
         <v>561</v>
       </c>
@@ -54351,7 +54355,7 @@
         <v>701.48282195810941</v>
       </c>
     </row>
-    <row r="947" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>565</v>
       </c>
@@ -54398,7 +54402,7 @@
         <v>1240.1527179373645</v>
       </c>
     </row>
-    <row r="948" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>567</v>
       </c>
@@ -54445,7 +54449,7 @@
         <v>609.68457731977219</v>
       </c>
     </row>
-    <row r="949" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
         <v>559</v>
       </c>
@@ -54492,7 +54496,7 @@
         <v>571.37270762619187</v>
       </c>
     </row>
-    <row r="950" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
         <v>563</v>
       </c>
@@ -54539,7 +54543,7 @@
         <v>3711.0930301092185</v>
       </c>
     </row>
-    <row r="951" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>575</v>
       </c>
@@ -54586,7 +54590,7 @@
         <v>2670.3122772047118</v>
       </c>
     </row>
-    <row r="952" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
         <v>577</v>
       </c>
@@ -54633,7 +54637,7 @@
         <v>1288.1301965863163</v>
       </c>
     </row>
-    <row r="953" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
         <v>572</v>
       </c>
@@ -54680,7 +54684,7 @@
         <v>2437.5864491445031</v>
       </c>
     </row>
-    <row r="954" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>607</v>
       </c>
@@ -54727,7 +54731,7 @@
         <v>516.37212749319406</v>
       </c>
     </row>
-    <row r="955" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>605</v>
       </c>
@@ -54774,7 +54778,7 @@
         <v>121.76278102477082</v>
       </c>
     </row>
-    <row r="956" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
         <v>603</v>
       </c>
@@ -54821,7 +54825,7 @@
         <v>105.67792550219222</v>
       </c>
     </row>
-    <row r="957" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
         <v>601</v>
       </c>
@@ -54868,7 +54872,7 @@
         <v>68.594327292931638</v>
       </c>
     </row>
-    <row r="958" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
         <v>599</v>
       </c>
@@ -54915,7 +54919,7 @@
         <v>6483.5767358966559</v>
       </c>
     </row>
-    <row r="959" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>597</v>
       </c>
@@ -54962,7 +54966,7 @@
         <v>78.784485738645174</v>
       </c>
     </row>
-    <row r="960" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
         <v>595</v>
       </c>
@@ -55009,7 +55013,7 @@
         <v>30.355385991778075</v>
       </c>
     </row>
-    <row r="961" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
         <v>593</v>
       </c>
@@ -55056,7 +55060,7 @@
         <v>74.704192241533406</v>
       </c>
     </row>
-    <row r="962" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
         <v>591</v>
       </c>
@@ -55103,7 +55107,7 @@
         <v>5131.2390388183067</v>
       </c>
     </row>
-    <row r="963" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>8</v>
       </c>
@@ -55150,7 +55154,7 @@
         <v>11388.236499999999</v>
       </c>
     </row>
-    <row r="964" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
         <v>22</v>
       </c>
@@ -55197,7 +55201,7 @@
         <v>21509.798499999997</v>
       </c>
     </row>
-    <row r="965" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>18</v>
       </c>
@@ -55244,7 +55248,7 @@
         <v>26706.233507746587</v>
       </c>
     </row>
-    <row r="966" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
         <v>12</v>
       </c>
@@ -55291,7 +55295,7 @@
         <v>20210.871499999997</v>
       </c>
     </row>
-    <row r="967" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>20</v>
       </c>
@@ -55338,7 +55342,7 @@
         <v>12561.28605416997</v>
       </c>
     </row>
-    <row r="968" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
         <v>16</v>
       </c>
@@ -55385,7 +55389,7 @@
         <v>13778.654028918552</v>
       </c>
     </row>
-    <row r="969" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
         <v>24</v>
       </c>
@@ -55432,7 +55436,7 @@
         <v>22011.676499999998</v>
       </c>
     </row>
-    <row r="970" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
         <v>6</v>
       </c>
@@ -55479,7 +55483,7 @@
         <v>15900.353918634015</v>
       </c>
     </row>
-    <row r="971" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
         <v>10</v>
       </c>
@@ -55526,7 +55530,7 @@
         <v>13172.305019295369</v>
       </c>
     </row>
-    <row r="972" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
         <v>14</v>
       </c>
@@ -55573,7 +55577,7 @@
         <v>16664.487807778969</v>
       </c>
     </row>
-    <row r="973" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>553</v>
       </c>
@@ -55620,7 +55624,7 @@
         <v>3987.7939595820108</v>
       </c>
     </row>
-    <row r="974" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
         <v>549</v>
       </c>
@@ -55667,7 +55671,7 @@
         <v>976.42156152360553</v>
       </c>
     </row>
-    <row r="975" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
         <v>547</v>
       </c>
@@ -55714,7 +55718,7 @@
         <v>452.40262765827589</v>
       </c>
     </row>
-    <row r="976" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
         <v>537</v>
       </c>
@@ -55761,7 +55765,7 @@
         <v>7826.2319317244546</v>
       </c>
     </row>
-    <row r="977" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>541</v>
       </c>
@@ -55808,7 +55812,7 @@
         <v>641.65961334429107</v>
       </c>
     </row>
-    <row r="978" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>539</v>
       </c>
@@ -55855,7 +55859,7 @@
         <v>724.23327042012966</v>
       </c>
     </row>
-    <row r="979" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>543</v>
       </c>
@@ -55902,7 +55906,7 @@
         <v>238.68330355420062</v>
       </c>
     </row>
-    <row r="980" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
         <v>545</v>
       </c>
@@ -55949,7 +55953,7 @@
         <v>436.81166796005664</v>
       </c>
     </row>
-    <row r="981" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
         <v>551</v>
       </c>
@@ -55996,7 +56000,7 @@
         <v>235.04911423295397</v>
       </c>
     </row>
-    <row r="982" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>528</v>
       </c>
@@ -56043,7 +56047,7 @@
         <v>3282.1438386947943</v>
       </c>
     </row>
-    <row r="983" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>532</v>
       </c>
@@ -56090,7 +56094,7 @@
         <v>2297.6892207900519</v>
       </c>
     </row>
-    <row r="984" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
         <v>534</v>
       </c>
@@ -56137,7 +56141,7 @@
         <v>1717.3454924372686</v>
       </c>
     </row>
-    <row r="985" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
         <v>530</v>
       </c>
@@ -56184,8 +56188,15 @@
         <v>1866.0864980778724</v>
       </c>
     </row>
+    <row r="986" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:N986" xr:uid="{9C763A65-4268-4E66-805F-7249AA98081F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Ginir"/>
+        <filter val="Ginir Town"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N986">
       <sortCondition ref="B1:B986"/>
     </sortState>

--- a/ethiopia-population-data-_-admin-level-0-3.xlsx
+++ b/ethiopia-population-data-_-admin-level-0-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnmeye\Documents\GitHub\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4D31B1-2A42-4734-9BB1-2A8A2FF0377E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B02F26-61AA-41A5-9932-DF50C11C44A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{C46972F3-0366-4C6B-B22A-C67C21EA161D}"/>
+    <workbookView xWindow="6915" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{C46972F3-0366-4C6B-B22A-C67C21EA161D}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin3" sheetId="2" r:id="rId1"/>
@@ -9900,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B04349-FD23-4797-87CD-358FDC2C3DCB}">
   <dimension ref="A1:N985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A769" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A780" sqref="A780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9910,7 +9910,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
